--- a/Sym_tab_readout_002.xlsx
+++ b/Sym_tab_readout_002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcfle\Documents\GitHub\T5CAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30886195-42EA-4FE4-84F1-C3380B3F762E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D120CBC6-ACED-45E9-A6E6-14D1CBAF4784}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B3754005-B1D8-4273-A999-F6D2E4C03AE3}"/>
   </bookViews>
@@ -112,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +149,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -162,13 +168,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -486,7 +493,7 @@
   <dimension ref="B1:H1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +514,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="B3" s="6">
         <f>HEX2DEC(D3)</f>
         <v>48</v>
       </c>
@@ -520,7 +527,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="B4" s="6">
         <f t="shared" ref="B4:B67" si="0">HEX2DEC(D4)</f>
         <v>48</v>
       </c>
@@ -533,7 +540,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="B5" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -546,7 +553,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -559,7 +566,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -572,7 +579,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -585,7 +592,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
@@ -598,7 +605,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
@@ -611,7 +618,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -624,7 +631,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -637,7 +644,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -650,7 +657,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
@@ -663,7 +670,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
@@ -676,7 +683,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -689,7 +696,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -702,7 +709,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="B18" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -715,7 +722,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="B19" s="6">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
@@ -728,7 +735,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="B20" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -741,7 +748,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="B21" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -755,7 +762,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22">
+      <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -774,7 +781,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23">
+      <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -787,7 +794,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="B24" s="6">
         <f>HEX2DEC(D24)</f>
         <v>54</v>
       </c>
@@ -800,7 +807,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
@@ -813,7 +820,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -832,7 +839,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27">
+      <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -848,7 +855,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -867,7 +874,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29">
+      <c r="B29" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -881,7 +888,7 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="B30" s="6">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
@@ -900,7 +907,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31">
+      <c r="B31" s="6">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
@@ -913,7 +920,7 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32">
+      <c r="B32" s="6">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
@@ -926,7 +933,7 @@
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33">
+      <c r="B33" s="6">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
@@ -939,7 +946,7 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34">
+      <c r="B34" s="6">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -952,7 +959,7 @@
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35">
+      <c r="B35" s="6">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
@@ -965,7 +972,7 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36">
+      <c r="B36" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -978,7 +985,7 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37">
+      <c r="B37" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -992,7 +999,7 @@
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38">
+      <c r="B38" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -1005,7 +1012,7 @@
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39">
+      <c r="B39" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -1018,7 +1025,7 @@
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40">
+      <c r="B40" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
@@ -1031,7 +1038,7 @@
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41">
+      <c r="B41" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
@@ -1044,7 +1051,7 @@
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42">
+      <c r="B42" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -1057,7 +1064,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43">
+      <c r="B43" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -1070,7 +1077,7 @@
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44">
+      <c r="B44" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -1083,7 +1090,7 @@
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45">
+      <c r="B45" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -1096,7 +1103,7 @@
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46">
+      <c r="B46" s="6">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
@@ -1109,7 +1116,7 @@
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47">
+      <c r="B47" s="6">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
@@ -1122,7 +1129,7 @@
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48">
+      <c r="B48" s="6">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
@@ -1135,7 +1142,7 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49">
+      <c r="B49" s="6">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
@@ -1148,7 +1155,7 @@
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50">
+      <c r="B50" s="6">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
@@ -1161,7 +1168,7 @@
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51">
+      <c r="B51" s="6">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
@@ -1174,7 +1181,7 @@
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52">
+      <c r="B52" s="6">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
@@ -1187,7 +1194,7 @@
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53">
+      <c r="B53" s="6">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
@@ -1200,7 +1207,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54">
+      <c r="B54" s="6">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
@@ -1213,7 +1220,7 @@
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55">
+      <c r="B55" s="6">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
@@ -1226,7 +1233,7 @@
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56">
+      <c r="B56" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1239,7 +1246,7 @@
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57">
+      <c r="B57" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1253,7 +1260,7 @@
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58">
+      <c r="B58" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -1266,7 +1273,7 @@
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59">
+      <c r="B59" s="6">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -1279,7 +1286,7 @@
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60">
+      <c r="B60" s="6">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
@@ -1292,7 +1299,7 @@
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61">
+      <c r="B61" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -1305,7 +1312,7 @@
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62">
+      <c r="B62" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -1318,7 +1325,7 @@
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63">
+      <c r="B63" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -1331,7 +1338,7 @@
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64">
+      <c r="B64" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -1344,7 +1351,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65">
+      <c r="B65" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -1357,7 +1364,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66">
+      <c r="B66" s="6">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
@@ -1370,7 +1377,7 @@
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67">
+      <c r="B67" s="6">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
@@ -1383,7 +1390,7 @@
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68">
+      <c r="B68" s="6">
         <f t="shared" ref="B68:B131" si="2">HEX2DEC(D68)</f>
         <v>83</v>
       </c>
@@ -1396,7 +1403,7 @@
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69">
+      <c r="B69" s="6">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
@@ -1409,7 +1416,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70">
+      <c r="B70" s="6">
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
@@ -1422,7 +1429,7 @@
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71">
+      <c r="B71" s="6">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
@@ -1435,7 +1442,7 @@
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72">
+      <c r="B72" s="6">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
@@ -1448,7 +1455,7 @@
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73">
+      <c r="B73" s="6">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
@@ -1461,7 +1468,7 @@
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74">
+      <c r="B74" s="6">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
@@ -1474,7 +1481,7 @@
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75">
+      <c r="B75" s="6">
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
@@ -1487,7 +1494,7 @@
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76">
+      <c r="B76" s="6">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
@@ -1500,7 +1507,7 @@
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77">
+      <c r="B77" s="6">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
@@ -1513,7 +1520,7 @@
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78">
+      <c r="B78" s="6">
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
@@ -1526,7 +1533,7 @@
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79">
+      <c r="B79" s="6">
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
@@ -1539,7 +1546,7 @@
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80">
+      <c r="B80" s="6">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
@@ -1552,7 +1559,7 @@
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81">
+      <c r="B81" s="6">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -1565,7 +1572,7 @@
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82">
+      <c r="B82" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1579,7 +1586,7 @@
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83">
+      <c r="B83" s="6">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
@@ -1592,7 +1599,7 @@
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84">
+      <c r="B84" s="6">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
@@ -1605,7 +1612,7 @@
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85">
+      <c r="B85" s="6">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
@@ -1618,7 +1625,7 @@
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86">
+      <c r="B86" s="6">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
@@ -1631,7 +1638,7 @@
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87">
+      <c r="B87" s="6">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
@@ -1644,7 +1651,7 @@
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88">
+      <c r="B88" s="6">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
@@ -1657,7 +1664,7 @@
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89">
+      <c r="B89" s="6">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
@@ -1670,7 +1677,7 @@
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90">
+      <c r="B90" s="6">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
@@ -1683,7 +1690,7 @@
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91">
+      <c r="B91" s="6">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
@@ -1696,7 +1703,7 @@
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92">
+      <c r="B92" s="6">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
@@ -1709,7 +1716,7 @@
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93">
+      <c r="B93" s="6">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
@@ -1722,7 +1729,7 @@
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94">
+      <c r="B94" s="6">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
@@ -1735,7 +1742,7 @@
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95">
+      <c r="B95" s="6">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
@@ -1748,7 +1755,7 @@
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96">
+      <c r="B96" s="6">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
@@ -1761,7 +1768,7 @@
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97">
+      <c r="B97" s="6">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -1774,7 +1781,7 @@
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98">
+      <c r="B98" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1788,7 +1795,7 @@
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99">
+      <c r="B99" s="6">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
@@ -1801,7 +1808,7 @@
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100">
+      <c r="B100" s="6">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
@@ -1814,7 +1821,7 @@
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101">
+      <c r="B101" s="6">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
@@ -1827,7 +1834,7 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102">
+      <c r="B102" s="6">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
@@ -1840,7 +1847,7 @@
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103">
+      <c r="B103" s="6">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
@@ -1853,7 +1860,7 @@
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104">
+      <c r="B104" s="6">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
@@ -1866,7 +1873,7 @@
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105">
+      <c r="B105" s="6">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
@@ -1879,7 +1886,7 @@
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106">
+      <c r="B106" s="6">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
@@ -1892,7 +1899,7 @@
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107">
+      <c r="B107" s="6">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
@@ -1905,7 +1912,7 @@
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108">
+      <c r="B108" s="6">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
@@ -1918,7 +1925,7 @@
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109">
+      <c r="B109" s="6">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
@@ -1931,7 +1938,7 @@
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110">
+      <c r="B110" s="6">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
@@ -1944,7 +1951,7 @@
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111">
+      <c r="B111" s="6">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
@@ -1957,7 +1964,7 @@
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112">
+      <c r="B112" s="6">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
@@ -1970,7 +1977,7 @@
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113">
+      <c r="B113" s="6">
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
@@ -1983,7 +1990,7 @@
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114">
+      <c r="B114" s="6">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
@@ -1996,7 +2003,7 @@
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115">
+      <c r="B115" s="6">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
@@ -2009,7 +2016,7 @@
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116">
+      <c r="B116" s="6">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
@@ -2022,7 +2029,7 @@
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117">
+      <c r="B117" s="6">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
@@ -2035,7 +2042,7 @@
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118">
+      <c r="B118" s="6">
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
@@ -2048,7 +2055,7 @@
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119">
+      <c r="B119" s="6">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -2061,7 +2068,7 @@
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120">
+      <c r="B120" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -2075,7 +2082,7 @@
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121">
+      <c r="B121" s="6">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
@@ -2088,7 +2095,7 @@
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122">
+      <c r="B122" s="6">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
@@ -2101,7 +2108,7 @@
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123">
+      <c r="B123" s="6">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
@@ -2114,7 +2121,7 @@
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124">
+      <c r="B124" s="6">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
@@ -2127,7 +2134,7 @@
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125">
+      <c r="B125" s="6">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
@@ -2140,7 +2147,7 @@
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126">
+      <c r="B126" s="6">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
@@ -2153,7 +2160,7 @@
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127">
+      <c r="B127" s="6">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
@@ -2166,7 +2173,7 @@
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128">
+      <c r="B128" s="6">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
@@ -2179,7 +2186,7 @@
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B129">
+      <c r="B129" s="6">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
@@ -2192,7 +2199,7 @@
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B130">
+      <c r="B130" s="6">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
@@ -2205,7 +2212,7 @@
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B131">
+      <c r="B131" s="6">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
@@ -2218,7 +2225,7 @@
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B132">
+      <c r="B132" s="6">
         <f t="shared" ref="B132:B195" si="4">HEX2DEC(D132)</f>
         <v>83</v>
       </c>
@@ -2231,7 +2238,7 @@
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B133">
+      <c r="B133" s="6">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
@@ -2244,7 +2251,7 @@
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B134">
+      <c r="B134" s="6">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
@@ -2257,7 +2264,7 @@
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B135">
+      <c r="B135" s="6">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
@@ -2270,7 +2277,7 @@
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B136">
+      <c r="B136" s="6">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
@@ -2283,7 +2290,7 @@
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B137">
+      <c r="B137" s="6">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
@@ -2297,7 +2304,7 @@
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B138">
+      <c r="B138" s="6">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
@@ -2310,7 +2317,7 @@
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B139">
+      <c r="B139" s="6">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
@@ -2323,7 +2330,7 @@
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B140">
+      <c r="B140" s="6">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
@@ -2336,7 +2343,7 @@
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B141">
+      <c r="B141" s="6">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -2349,7 +2356,7 @@
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B142">
+      <c r="B142" s="6">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -2362,7 +2369,7 @@
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B143">
+      <c r="B143" s="6">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -2375,7 +2382,7 @@
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B144">
+      <c r="B144" s="6">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -2388,7 +2395,7 @@
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B145">
+      <c r="B145" s="6">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
@@ -2401,7 +2408,7 @@
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B146">
+      <c r="B146" s="6">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
@@ -2414,7 +2421,7 @@
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B147">
+      <c r="B147" s="6">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
@@ -2427,7 +2434,7 @@
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B148">
+      <c r="B148" s="6">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
@@ -2440,7 +2447,7 @@
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B149">
+      <c r="B149" s="6">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
@@ -2453,7 +2460,7 @@
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B150">
+      <c r="B150" s="6">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
@@ -2466,7 +2473,7 @@
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B151">
+      <c r="B151" s="6">
         <f t="shared" si="4"/>
         <v>78</v>
       </c>
@@ -2479,7 +2486,7 @@
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B152">
+      <c r="B152" s="6">
         <f t="shared" si="4"/>
         <v>78</v>
       </c>
@@ -2492,7 +2499,7 @@
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B153">
+      <c r="B153" s="6">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
@@ -2505,7 +2512,7 @@
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B154">
+      <c r="B154" s="6">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
@@ -2519,7 +2526,7 @@
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B155">
+      <c r="B155" s="6">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
@@ -2532,7 +2539,7 @@
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B156">
+      <c r="B156" s="6">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
@@ -2545,7 +2552,7 @@
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B157">
+      <c r="B157" s="6">
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
@@ -2558,7 +2565,7 @@
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B158">
+      <c r="B158" s="6">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
@@ -2571,7 +2578,7 @@
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B159">
+      <c r="B159" s="6">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -2584,7 +2591,7 @@
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B160">
+      <c r="B160" s="6">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -2597,7 +2604,7 @@
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B161">
+      <c r="B161" s="6">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -2610,7 +2617,7 @@
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B162">
+      <c r="B162" s="6">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
@@ -2623,7 +2630,7 @@
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B163">
+      <c r="B163" s="6">
         <f t="shared" si="4"/>
         <v>75</v>
       </c>
@@ -2636,7 +2643,7 @@
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B164">
+      <c r="B164" s="6">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
@@ -2649,7 +2656,7 @@
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B165">
+      <c r="B165" s="6">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
@@ -2662,7 +2669,7 @@
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B166">
+      <c r="B166" s="6">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
@@ -2675,7 +2682,7 @@
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B167">
+      <c r="B167" s="6">
         <f t="shared" si="4"/>
         <v>73</v>
       </c>
@@ -2688,7 +2695,7 @@
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B168">
+      <c r="B168" s="6">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
@@ -2701,7 +2708,7 @@
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B169">
+      <c r="B169" s="6">
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
@@ -2714,7 +2721,7 @@
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B170">
+      <c r="B170" s="6">
         <f t="shared" si="4"/>
         <v>101</v>
       </c>
@@ -2727,7 +2734,7 @@
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B171">
+      <c r="B171" s="6">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
@@ -2740,7 +2747,7 @@
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B172">
+      <c r="B172" s="6">
         <f t="shared" si="4"/>
         <v>116</v>
       </c>
@@ -2753,7 +2760,7 @@
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B173">
+      <c r="B173" s="6">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
@@ -2766,7 +2773,7 @@
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B174">
+      <c r="B174" s="6">
         <f t="shared" si="4"/>
         <v>111</v>
       </c>
@@ -2779,7 +2786,7 @@
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B175">
+      <c r="B175" s="6">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
@@ -2792,7 +2799,7 @@
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B176">
+      <c r="B176" s="6">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
@@ -2805,7 +2812,7 @@
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B177">
+      <c r="B177" s="6">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
@@ -2819,7 +2826,7 @@
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B178">
+      <c r="B178" s="6">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
@@ -2832,7 +2839,7 @@
       </c>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B179">
+      <c r="B179" s="6">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
@@ -2845,7 +2852,7 @@
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B180">
+      <c r="B180" s="6">
         <f t="shared" si="4"/>
         <v>67</v>
       </c>
@@ -2858,7 +2865,7 @@
       </c>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B181">
+      <c r="B181" s="6">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
@@ -2871,7 +2878,7 @@
       </c>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B182">
+      <c r="B182" s="6">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -2884,7 +2891,7 @@
       </c>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B183">
+      <c r="B183" s="6">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -2897,7 +2904,7 @@
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B184">
+      <c r="B184" s="6">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -2910,7 +2917,7 @@
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B185">
+      <c r="B185" s="6">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
@@ -2923,7 +2930,7 @@
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B186">
+      <c r="B186" s="6">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
@@ -2936,7 +2943,7 @@
       </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B187">
+      <c r="B187" s="6">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
@@ -2949,7 +2956,7 @@
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B188">
+      <c r="B188" s="6">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
@@ -2962,7 +2969,7 @@
       </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B189">
+      <c r="B189" s="6">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
@@ -2975,7 +2982,7 @@
       </c>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B190">
+      <c r="B190" s="6">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
@@ -2988,7 +2995,7 @@
       </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B191">
+      <c r="B191" s="6">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
@@ -3001,7 +3008,7 @@
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B192">
+      <c r="B192" s="6">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
@@ -3014,7 +3021,7 @@
       </c>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B193">
+      <c r="B193" s="6">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
@@ -3027,7 +3034,7 @@
       </c>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B194">
+      <c r="B194" s="6">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
@@ -3041,7 +3048,7 @@
       </c>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B195">
+      <c r="B195" s="6">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
@@ -3054,7 +3061,7 @@
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B196">
+      <c r="B196" s="6">
         <f t="shared" ref="B196:B259" si="6">HEX2DEC(D196)</f>
         <v>65</v>
       </c>
@@ -3067,7 +3074,7 @@
       </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B197">
+      <c r="B197" s="6">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
@@ -3080,7 +3087,7 @@
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B198">
+      <c r="B198" s="6">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
@@ -3093,7 +3100,7 @@
       </c>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B199">
+      <c r="B199" s="6">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
@@ -3106,7 +3113,7 @@
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B200">
+      <c r="B200" s="6">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
@@ -3119,7 +3126,7 @@
       </c>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B201">
+      <c r="B201" s="6">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
@@ -3132,7 +3139,7 @@
       </c>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B202">
+      <c r="B202" s="6">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
@@ -3145,7 +3152,7 @@
       </c>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B203">
+      <c r="B203" s="6">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
@@ -3158,7 +3165,7 @@
       </c>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B204">
+      <c r="B204" s="6">
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
@@ -3171,7 +3178,7 @@
       </c>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B205">
+      <c r="B205" s="6">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
@@ -3184,7 +3191,7 @@
       </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B206">
+      <c r="B206" s="6">
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
@@ -3197,7 +3204,7 @@
       </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B207">
+      <c r="B207" s="6">
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
@@ -3210,7 +3217,7 @@
       </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B208">
+      <c r="B208" s="6">
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
@@ -3223,7 +3230,7 @@
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B209">
+      <c r="B209" s="6">
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
@@ -3236,7 +3243,7 @@
       </c>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B210">
+      <c r="B210" s="6">
         <f t="shared" si="6"/>
         <v>88</v>
       </c>
@@ -3249,7 +3256,7 @@
       </c>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B211">
+      <c r="B211" s="6">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
@@ -3262,7 +3269,7 @@
       </c>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B212">
+      <c r="B212" s="6">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -3276,7 +3283,7 @@
       </c>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B213">
+      <c r="B213" s="6">
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
@@ -3289,7 +3296,7 @@
       </c>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B214">
+      <c r="B214" s="6">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
@@ -3302,7 +3309,7 @@
       </c>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B215">
+      <c r="B215" s="6">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
@@ -3315,7 +3322,7 @@
       </c>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B216">
+      <c r="B216" s="6">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
@@ -3328,7 +3335,7 @@
       </c>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B217">
+      <c r="B217" s="6">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
@@ -3341,7 +3348,7 @@
       </c>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B218">
+      <c r="B218" s="6">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
@@ -3354,7 +3361,7 @@
       </c>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B219">
+      <c r="B219" s="6">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
@@ -3367,7 +3374,7 @@
       </c>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B220">
+      <c r="B220" s="6">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
@@ -3380,7 +3387,7 @@
       </c>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B221">
+      <c r="B221" s="6">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
@@ -3393,7 +3400,7 @@
       </c>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B222">
+      <c r="B222" s="6">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
@@ -3406,7 +3413,7 @@
       </c>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B223">
+      <c r="B223" s="6">
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
@@ -3419,7 +3426,7 @@
       </c>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B224">
+      <c r="B224" s="6">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
@@ -3432,7 +3439,7 @@
       </c>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B225">
+      <c r="B225" s="6">
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
@@ -3445,7 +3452,7 @@
       </c>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B226">
+      <c r="B226" s="6">
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
@@ -3458,7 +3465,7 @@
       </c>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B227">
+      <c r="B227" s="6">
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
@@ -3471,7 +3478,7 @@
       </c>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B228">
+      <c r="B228" s="6">
         <f t="shared" si="6"/>
         <v>88</v>
       </c>
@@ -3484,7 +3491,7 @@
       </c>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B229">
+      <c r="B229" s="6">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
@@ -3497,7 +3504,7 @@
       </c>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B230">
+      <c r="B230" s="6">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -3511,7 +3518,7 @@
       </c>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B231">
+      <c r="B231" s="6">
         <f t="shared" si="6"/>
         <v>52</v>
       </c>
@@ -3524,7 +3531,7 @@
       </c>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B232">
+      <c r="B232" s="6">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
@@ -3537,7 +3544,7 @@
       </c>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B233">
+      <c r="B233" s="6">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
@@ -3550,7 +3557,7 @@
       </c>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B234">
+      <c r="B234" s="6">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
@@ -3563,7 +3570,7 @@
       </c>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B235">
+      <c r="B235" s="6">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
@@ -3576,7 +3583,7 @@
       </c>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B236">
+      <c r="B236" s="6">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
@@ -3589,7 +3596,7 @@
       </c>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B237">
+      <c r="B237" s="6">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
@@ -3602,7 +3609,7 @@
       </c>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B238">
+      <c r="B238" s="6">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
@@ -3615,7 +3622,7 @@
       </c>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B239">
+      <c r="B239" s="6">
         <f t="shared" si="6"/>
         <v>114</v>
       </c>
@@ -3628,7 +3635,7 @@
       </c>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B240">
+      <c r="B240" s="6">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
@@ -3641,7 +3648,7 @@
       </c>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B241">
+      <c r="B241" s="6">
         <f t="shared" si="6"/>
         <v>98</v>
       </c>
@@ -3654,7 +3661,7 @@
       </c>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B242">
+      <c r="B242" s="6">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
@@ -3667,7 +3674,7 @@
       </c>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B243">
+      <c r="B243" s="6">
         <f t="shared" si="6"/>
         <v>102</v>
       </c>
@@ -3680,7 +3687,7 @@
       </c>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B244">
+      <c r="B244" s="6">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
@@ -3693,7 +3700,7 @@
       </c>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B245">
+      <c r="B245" s="6">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -3707,7 +3714,7 @@
       </c>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B246">
+      <c r="B246" s="6">
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
@@ -3720,7 +3727,7 @@
       </c>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B247">
+      <c r="B247" s="6">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
@@ -3733,7 +3740,7 @@
       </c>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B248">
+      <c r="B248" s="6">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
@@ -3746,7 +3753,7 @@
       </c>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B249">
+      <c r="B249" s="6">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
@@ -3759,7 +3766,7 @@
       </c>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B250">
+      <c r="B250" s="6">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
@@ -3772,7 +3779,7 @@
       </c>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B251">
+      <c r="B251" s="6">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
@@ -3785,7 +3792,7 @@
       </c>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B252">
+      <c r="B252" s="6">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
@@ -3798,7 +3805,7 @@
       </c>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B253">
+      <c r="B253" s="6">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
@@ -3811,7 +3818,7 @@
       </c>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B254">
+      <c r="B254" s="6">
         <f t="shared" si="6"/>
         <v>116</v>
       </c>
@@ -3824,7 +3831,7 @@
       </c>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B255">
+      <c r="B255" s="6">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
@@ -3837,7 +3844,7 @@
       </c>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B256">
+      <c r="B256" s="6">
         <f t="shared" si="6"/>
         <v>98</v>
       </c>
@@ -3850,7 +3857,7 @@
       </c>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B257">
+      <c r="B257" s="6">
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
@@ -3863,7 +3870,7 @@
       </c>
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B258">
+      <c r="B258" s="6">
         <f t="shared" si="6"/>
         <v>102</v>
       </c>
@@ -3876,7 +3883,7 @@
       </c>
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B259">
+      <c r="B259" s="6">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
@@ -3889,7 +3896,7 @@
       </c>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B260">
+      <c r="B260" s="6">
         <f t="shared" ref="B260:B323" si="8">HEX2DEC(D260)</f>
         <v>10</v>
       </c>
@@ -3903,7 +3910,7 @@
       </c>
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B261">
+      <c r="B261" s="6">
         <f t="shared" si="8"/>
         <v>52</v>
       </c>
@@ -3916,7 +3923,7 @@
       </c>
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B262">
+      <c r="B262" s="6">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
@@ -3929,7 +3936,7 @@
       </c>
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B263">
+      <c r="B263" s="6">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
@@ -3942,7 +3949,7 @@
       </c>
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B264">
+      <c r="B264" s="6">
         <f t="shared" si="8"/>
         <v>65</v>
       </c>
@@ -3955,7 +3962,7 @@
       </c>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B265">
+      <c r="B265" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -3968,7 +3975,7 @@
       </c>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B266">
+      <c r="B266" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -3981,7 +3988,7 @@
       </c>
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B267">
+      <c r="B267" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -3994,7 +4001,7 @@
       </c>
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B268">
+      <c r="B268" s="6">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
@@ -4007,7 +4014,7 @@
       </c>
     </row>
     <row r="269" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B269">
+      <c r="B269" s="6">
         <f t="shared" si="8"/>
         <v>73</v>
       </c>
@@ -4020,7 +4027,7 @@
       </c>
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B270">
+      <c r="B270" s="6">
         <f t="shared" si="8"/>
         <v>109</v>
       </c>
@@ -4033,7 +4040,7 @@
       </c>
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B271">
+      <c r="B271" s="6">
         <f t="shared" si="8"/>
         <v>109</v>
       </c>
@@ -4046,7 +4053,7 @@
       </c>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B272">
+      <c r="B272" s="6">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
@@ -4059,7 +4066,7 @@
       </c>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B273">
+      <c r="B273" s="6">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
@@ -4072,7 +4079,7 @@
       </c>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B274">
+      <c r="B274" s="6">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
@@ -4085,7 +4092,7 @@
       </c>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B275">
+      <c r="B275" s="6">
         <f t="shared" si="8"/>
         <v>109</v>
       </c>
@@ -4098,7 +4105,7 @@
       </c>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B276">
+      <c r="B276" s="6">
         <f t="shared" si="8"/>
         <v>101</v>
       </c>
@@ -4111,7 +4118,7 @@
       </c>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B277">
+      <c r="B277" s="6">
         <f t="shared" si="8"/>
         <v>114</v>
       </c>
@@ -4124,7 +4131,7 @@
       </c>
     </row>
     <row r="278" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B278">
+      <c r="B278" s="6">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
@@ -4137,7 +4144,7 @@
       </c>
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B279">
+      <c r="B279" s="6">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -4151,7 +4158,7 @@
       </c>
     </row>
     <row r="280" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B280">
+      <c r="B280" s="6">
         <f t="shared" si="8"/>
         <v>49</v>
       </c>
@@ -4164,7 +4171,7 @@
       </c>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B281">
+      <c r="B281" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4177,7 +4184,7 @@
       </c>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B282">
+      <c r="B282" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4190,7 +4197,7 @@
       </c>
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B283">
+      <c r="B283" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4203,7 +4210,7 @@
       </c>
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B284">
+      <c r="B284" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4216,7 +4223,7 @@
       </c>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B285">
+      <c r="B285" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4229,7 +4236,7 @@
       </c>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B286">
+      <c r="B286" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4242,7 +4249,7 @@
       </c>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B287">
+      <c r="B287" s="6">
         <f t="shared" si="8"/>
         <v>49</v>
       </c>
@@ -4255,7 +4262,7 @@
       </c>
     </row>
     <row r="288" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B288">
+      <c r="B288" s="6">
         <f t="shared" si="8"/>
         <v>65</v>
       </c>
@@ -4268,7 +4275,7 @@
       </c>
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B289">
+      <c r="B289" s="6">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
@@ -4281,7 +4288,7 @@
       </c>
     </row>
     <row r="290" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B290">
+      <c r="B290" s="6">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
@@ -4294,7 +4301,7 @@
       </c>
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B291">
+      <c r="B291" s="6">
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
@@ -4307,7 +4314,7 @@
       </c>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B292">
+      <c r="B292" s="6">
         <f t="shared" si="8"/>
         <v>102</v>
       </c>
@@ -4320,7 +4327,7 @@
       </c>
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B293">
+      <c r="B293" s="6">
         <f t="shared" si="8"/>
         <v>97</v>
       </c>
@@ -4333,7 +4340,7 @@
       </c>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B294">
+      <c r="B294" s="6">
         <f t="shared" si="8"/>
         <v>107</v>
       </c>
@@ -4346,7 +4353,7 @@
       </c>
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B295">
+      <c r="B295" s="6">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
@@ -4359,7 +4366,7 @@
       </c>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B296">
+      <c r="B296" s="6">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -4373,7 +4380,7 @@
       </c>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B297">
+      <c r="B297" s="6">
         <f t="shared" si="8"/>
         <v>49</v>
       </c>
@@ -4386,7 +4393,7 @@
       </c>
     </row>
     <row r="298" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B298">
+      <c r="B298" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4399,7 +4406,7 @@
       </c>
     </row>
     <row r="299" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B299">
+      <c r="B299" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4412,7 +4419,7 @@
       </c>
     </row>
     <row r="300" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B300">
+      <c r="B300" s="6">
         <f t="shared" si="8"/>
         <v>49</v>
       </c>
@@ -4425,7 +4432,7 @@
       </c>
     </row>
     <row r="301" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B301">
+      <c r="B301" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4438,7 +4445,7 @@
       </c>
     </row>
     <row r="302" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B302">
+      <c r="B302" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4451,7 +4458,7 @@
       </c>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B303">
+      <c r="B303" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4464,7 +4471,7 @@
       </c>
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B304">
+      <c r="B304" s="6">
         <f t="shared" si="8"/>
         <v>49</v>
       </c>
@@ -4477,7 +4484,7 @@
       </c>
     </row>
     <row r="305" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B305">
+      <c r="B305" s="6">
         <f t="shared" si="8"/>
         <v>65</v>
       </c>
@@ -4490,7 +4497,7 @@
       </c>
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B306">
+      <c r="B306" s="6">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
@@ -4503,7 +4510,7 @@
       </c>
     </row>
     <row r="307" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B307">
+      <c r="B307" s="6">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
@@ -4516,7 +4523,7 @@
       </c>
     </row>
     <row r="308" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B308">
+      <c r="B308" s="6">
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
@@ -4529,7 +4536,7 @@
       </c>
     </row>
     <row r="309" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B309">
+      <c r="B309" s="6">
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
@@ -4542,7 +4549,7 @@
       </c>
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B310">
+      <c r="B310" s="6">
         <f t="shared" si="8"/>
         <v>101</v>
       </c>
@@ -4555,7 +4562,7 @@
       </c>
     </row>
     <row r="311" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B311">
+      <c r="B311" s="6">
         <f t="shared" si="8"/>
         <v>109</v>
       </c>
@@ -4568,7 +4575,7 @@
       </c>
     </row>
     <row r="312" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B312">
+      <c r="B312" s="6">
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
@@ -4581,7 +4588,7 @@
       </c>
     </row>
     <row r="313" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B313">
+      <c r="B313" s="6">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
@@ -4594,7 +4601,7 @@
       </c>
     </row>
     <row r="314" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B314">
+      <c r="B314" s="6">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -4608,7 +4615,7 @@
       </c>
     </row>
     <row r="315" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B315">
+      <c r="B315" s="6">
         <f t="shared" si="8"/>
         <v>49</v>
       </c>
@@ -4621,7 +4628,7 @@
       </c>
     </row>
     <row r="316" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B316">
+      <c r="B316" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4634,7 +4641,7 @@
       </c>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B317">
+      <c r="B317" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4647,7 +4654,7 @@
       </c>
     </row>
     <row r="318" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B318">
+      <c r="B318" s="6">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
@@ -4660,7 +4667,7 @@
       </c>
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B319">
+      <c r="B319" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4673,7 +4680,7 @@
       </c>
     </row>
     <row r="320" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B320">
+      <c r="B320" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4686,7 +4693,7 @@
       </c>
     </row>
     <row r="321" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B321">
+      <c r="B321" s="6">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
@@ -4699,7 +4706,7 @@
       </c>
     </row>
     <row r="322" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B322">
+      <c r="B322" s="6">
         <f t="shared" si="8"/>
         <v>52</v>
       </c>
@@ -4712,7 +4719,7 @@
       </c>
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B323">
+      <c r="B323" s="6">
         <f t="shared" si="8"/>
         <v>65</v>
       </c>
@@ -4725,7 +4732,7 @@
       </c>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B324">
+      <c r="B324" s="6">
         <f t="shared" ref="B324:B387" si="10">HEX2DEC(D324)</f>
         <v>99</v>
       </c>
@@ -4738,7 +4745,7 @@
       </c>
     </row>
     <row r="325" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B325">
+      <c r="B325" s="6">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
@@ -4751,7 +4758,7 @@
       </c>
     </row>
     <row r="326" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B326">
+      <c r="B326" s="6">
         <f t="shared" si="10"/>
         <v>95</v>
       </c>
@@ -4764,7 +4771,7 @@
       </c>
     </row>
     <row r="327" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B327">
+      <c r="B327" s="6">
         <f t="shared" si="10"/>
         <v>109</v>
       </c>
@@ -4777,7 +4784,7 @@
       </c>
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B328">
+      <c r="B328" s="6">
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
@@ -4790,7 +4797,7 @@
       </c>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B329">
+      <c r="B329" s="6">
         <f t="shared" si="10"/>
         <v>110</v>
       </c>
@@ -4803,7 +4810,7 @@
       </c>
     </row>
     <row r="330" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B330">
+      <c r="B330" s="6">
         <f t="shared" si="10"/>
         <v>103</v>
       </c>
@@ -4816,7 +4823,7 @@
       </c>
     </row>
     <row r="331" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B331">
+      <c r="B331" s="6">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
@@ -4829,7 +4836,7 @@
       </c>
     </row>
     <row r="332" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B332">
+      <c r="B332" s="6">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
@@ -4842,7 +4849,7 @@
       </c>
     </row>
     <row r="333" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B333">
+      <c r="B333" s="6">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
@@ -4856,7 +4863,7 @@
       </c>
     </row>
     <row r="334" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B334">
+      <c r="B334" s="6">
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
@@ -4869,7 +4876,7 @@
       </c>
     </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B335">
+      <c r="B335" s="6">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
@@ -4882,7 +4889,7 @@
       </c>
     </row>
     <row r="336" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B336">
+      <c r="B336" s="6">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
@@ -4895,7 +4902,7 @@
       </c>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B337">
+      <c r="B337" s="6">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
@@ -4908,7 +4915,7 @@
       </c>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B338">
+      <c r="B338" s="6">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
@@ -4921,7 +4928,7 @@
       </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B339">
+      <c r="B339" s="6">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
@@ -4934,7 +4941,7 @@
       </c>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B340">
+      <c r="B340" s="6">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
@@ -4947,7 +4954,7 @@
       </c>
     </row>
     <row r="341" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B341">
+      <c r="B341" s="6">
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
@@ -4960,7 +4967,7 @@
       </c>
     </row>
     <row r="342" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B342">
+      <c r="B342" s="6">
         <f t="shared" si="10"/>
         <v>76</v>
       </c>
@@ -4973,7 +4980,7 @@
       </c>
     </row>
     <row r="343" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B343">
+      <c r="B343" s="6">
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
@@ -4986,7 +4993,7 @@
       </c>
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B344">
+      <c r="B344" s="6">
         <f t="shared" si="10"/>
         <v>115</v>
       </c>
@@ -4999,7 +5006,7 @@
       </c>
     </row>
     <row r="345" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B345">
+      <c r="B345" s="6">
         <f t="shared" si="10"/>
         <v>116</v>
       </c>
@@ -5012,7 +5019,7 @@
       </c>
     </row>
     <row r="346" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B346">
+      <c r="B346" s="6">
         <f t="shared" si="10"/>
         <v>95</v>
       </c>
@@ -5025,7 +5032,7 @@
       </c>
     </row>
     <row r="347" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B347">
+      <c r="B347" s="6">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
@@ -5038,7 +5045,7 @@
       </c>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B348">
+      <c r="B348" s="6">
         <f t="shared" si="10"/>
         <v>101</v>
       </c>
@@ -5051,7 +5058,7 @@
       </c>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B349">
+      <c r="B349" s="6">
         <f t="shared" si="10"/>
         <v>108</v>
       </c>
@@ -5064,7 +5071,7 @@
       </c>
     </row>
     <row r="350" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B350">
+      <c r="B350" s="6">
         <f t="shared" si="10"/>
         <v>116</v>
       </c>
@@ -5077,7 +5084,7 @@
       </c>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B351">
+      <c r="B351" s="6">
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
@@ -5090,7 +5097,7 @@
       </c>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B352">
+      <c r="B352" s="6">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
@@ -5103,7 +5110,7 @@
       </c>
     </row>
     <row r="353" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B353">
+      <c r="B353" s="6">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
@@ -5117,7 +5124,7 @@
       </c>
     </row>
     <row r="354" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B354">
+      <c r="B354" s="6">
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
@@ -5130,7 +5137,7 @@
       </c>
     </row>
     <row r="355" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B355">
+      <c r="B355" s="6">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
@@ -5143,7 +5150,7 @@
       </c>
     </row>
     <row r="356" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B356">
+      <c r="B356" s="6">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
@@ -5156,7 +5163,7 @@
       </c>
     </row>
     <row r="357" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B357">
+      <c r="B357" s="6">
         <f t="shared" si="10"/>
         <v>54</v>
       </c>
@@ -5169,7 +5176,7 @@
       </c>
     </row>
     <row r="358" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B358">
+      <c r="B358" s="6">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
@@ -5182,7 +5189,7 @@
       </c>
     </row>
     <row r="359" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B359">
+      <c r="B359" s="6">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
@@ -5195,7 +5202,7 @@
       </c>
     </row>
     <row r="360" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B360">
+      <c r="B360" s="6">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
@@ -5208,7 +5215,7 @@
       </c>
     </row>
     <row r="361" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B361">
+      <c r="B361" s="6">
         <f t="shared" si="10"/>
         <v>52</v>
       </c>
@@ -5221,7 +5228,7 @@
       </c>
     </row>
     <row r="362" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B362">
+      <c r="B362" s="6">
         <f t="shared" si="10"/>
         <v>76</v>
       </c>
@@ -5234,7 +5241,7 @@
       </c>
     </row>
     <row r="363" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B363">
+      <c r="B363" s="6">
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
@@ -5247,7 +5254,7 @@
       </c>
     </row>
     <row r="364" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B364">
+      <c r="B364" s="6">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
@@ -5260,7 +5267,7 @@
       </c>
     </row>
     <row r="365" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B365">
+      <c r="B365" s="6">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
@@ -5273,7 +5280,7 @@
       </c>
     </row>
     <row r="366" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B366">
+      <c r="B366" s="6">
         <f t="shared" si="10"/>
         <v>95</v>
       </c>
@@ -5286,7 +5293,7 @@
       </c>
     </row>
     <row r="367" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B367">
+      <c r="B367" s="6">
         <f t="shared" si="10"/>
         <v>109</v>
       </c>
@@ -5299,7 +5306,7 @@
       </c>
     </row>
     <row r="368" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B368">
+      <c r="B368" s="6">
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
@@ -5312,7 +5319,7 @@
       </c>
     </row>
     <row r="369" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B369">
+      <c r="B369" s="6">
         <f t="shared" si="10"/>
         <v>110</v>
       </c>
@@ -5325,7 +5332,7 @@
       </c>
     </row>
     <row r="370" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B370">
+      <c r="B370" s="6">
         <f t="shared" si="10"/>
         <v>103</v>
       </c>
@@ -5338,7 +5345,7 @@
       </c>
     </row>
     <row r="371" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B371">
+      <c r="B371" s="6">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
@@ -5351,7 +5358,7 @@
       </c>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B372">
+      <c r="B372" s="6">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
@@ -5364,7 +5371,7 @@
       </c>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B373">
+      <c r="B373" s="6">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
@@ -5378,7 +5385,7 @@
       </c>
     </row>
     <row r="374" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B374">
+      <c r="B374" s="6">
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
@@ -5391,7 +5398,7 @@
       </c>
     </row>
     <row r="375" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B375">
+      <c r="B375" s="6">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
@@ -5404,7 +5411,7 @@
       </c>
     </row>
     <row r="376" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B376">
+      <c r="B376" s="6">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
@@ -5417,7 +5424,7 @@
       </c>
     </row>
     <row r="377" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B377">
+      <c r="B377" s="6">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
@@ -5430,7 +5437,7 @@
       </c>
     </row>
     <row r="378" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B378">
+      <c r="B378" s="6">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
@@ -5443,7 +5450,7 @@
       </c>
     </row>
     <row r="379" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B379">
+      <c r="B379" s="6">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
@@ -5456,7 +5463,7 @@
       </c>
     </row>
     <row r="380" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B380">
+      <c r="B380" s="6">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
@@ -5469,7 +5476,7 @@
       </c>
     </row>
     <row r="381" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B381">
+      <c r="B381" s="6">
         <f t="shared" si="10"/>
         <v>52</v>
       </c>
@@ -5482,7 +5489,7 @@
       </c>
     </row>
     <row r="382" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B382">
+      <c r="B382" s="6">
         <f t="shared" si="10"/>
         <v>76</v>
       </c>
@@ -5495,7 +5502,7 @@
       </c>
     </row>
     <row r="383" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B383">
+      <c r="B383" s="6">
         <f t="shared" si="10"/>
         <v>114</v>
       </c>
@@ -5508,7 +5515,7 @@
       </c>
     </row>
     <row r="384" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B384">
+      <c r="B384" s="6">
         <f t="shared" si="10"/>
         <v>101</v>
       </c>
@@ -5521,7 +5528,7 @@
       </c>
     </row>
     <row r="385" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B385">
+      <c r="B385" s="6">
         <f t="shared" si="10"/>
         <v>116</v>
       </c>
@@ -5534,7 +5541,7 @@
       </c>
     </row>
     <row r="386" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B386">
+      <c r="B386" s="6">
         <f t="shared" si="10"/>
         <v>95</v>
       </c>
@@ -5547,7 +5554,7 @@
       </c>
     </row>
     <row r="387" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B387">
+      <c r="B387" s="6">
         <f t="shared" si="10"/>
         <v>109</v>
       </c>
@@ -5560,7 +5567,7 @@
       </c>
     </row>
     <row r="388" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B388">
+      <c r="B388" s="6">
         <f t="shared" ref="B388:B451" si="12">HEX2DEC(D388)</f>
         <v>97</v>
       </c>
@@ -5573,7 +5580,7 @@
       </c>
     </row>
     <row r="389" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B389">
+      <c r="B389" s="6">
         <f t="shared" si="12"/>
         <v>110</v>
       </c>
@@ -5586,7 +5593,7 @@
       </c>
     </row>
     <row r="390" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B390">
+      <c r="B390" s="6">
         <f t="shared" si="12"/>
         <v>103</v>
       </c>
@@ -5599,7 +5606,7 @@
       </c>
     </row>
     <row r="391" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B391">
+      <c r="B391" s="6">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
@@ -5612,7 +5619,7 @@
       </c>
     </row>
     <row r="392" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B392">
+      <c r="B392" s="6">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
@@ -5625,7 +5632,7 @@
       </c>
     </row>
     <row r="393" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B393">
+      <c r="B393" s="6">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
@@ -5639,7 +5646,7 @@
       </c>
     </row>
     <row r="394" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B394">
+      <c r="B394" s="6">
         <f t="shared" si="12"/>
         <v>49</v>
       </c>
@@ -5652,7 +5659,7 @@
       </c>
     </row>
     <row r="395" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B395">
+      <c r="B395" s="6">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
@@ -5665,7 +5672,7 @@
       </c>
     </row>
     <row r="396" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B396">
+      <c r="B396" s="6">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
@@ -5678,7 +5685,7 @@
       </c>
     </row>
     <row r="397" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B397">
+      <c r="B397" s="6">
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
@@ -5691,7 +5698,7 @@
       </c>
     </row>
     <row r="398" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B398">
+      <c r="B398" s="6">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
@@ -5704,7 +5711,7 @@
       </c>
     </row>
     <row r="399" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B399">
+      <c r="B399" s="6">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
@@ -5717,7 +5724,7 @@
       </c>
     </row>
     <row r="400" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B400">
+      <c r="B400" s="6">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
@@ -5730,7 +5737,7 @@
       </c>
     </row>
     <row r="401" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B401">
+      <c r="B401" s="6">
         <f t="shared" si="12"/>
         <v>49</v>
       </c>
@@ -5743,7 +5750,7 @@
       </c>
     </row>
     <row r="402" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B402">
+      <c r="B402" s="6">
         <f t="shared" si="12"/>
         <v>65</v>
       </c>
@@ -5756,7 +5763,7 @@
       </c>
     </row>
     <row r="403" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B403">
+      <c r="B403" s="6">
         <f t="shared" si="12"/>
         <v>68</v>
       </c>
@@ -5769,7 +5776,7 @@
       </c>
     </row>
     <row r="404" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B404">
+      <c r="B404" s="6">
         <f t="shared" si="12"/>
         <v>95</v>
       </c>
@@ -5782,7 +5789,7 @@
       </c>
     </row>
     <row r="405" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B405">
+      <c r="B405" s="6">
         <f t="shared" si="12"/>
         <v>98</v>
       </c>
@@ -5795,7 +5802,7 @@
       </c>
     </row>
     <row r="406" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B406">
+      <c r="B406" s="6">
         <f t="shared" si="12"/>
         <v>97</v>
       </c>
@@ -5808,7 +5815,7 @@
       </c>
     </row>
     <row r="407" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B407">
+      <c r="B407" s="6">
         <f t="shared" si="12"/>
         <v>116</v>
       </c>
@@ -5821,7 +5828,7 @@
       </c>
     </row>
     <row r="408" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B408">
+      <c r="B408" s="6">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
@@ -5834,7 +5841,7 @@
       </c>
     </row>
     <row r="409" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B409">
+      <c r="B409" s="6">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
@@ -5848,7 +5855,7 @@
       </c>
     </row>
     <row r="410" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B410">
+      <c r="B410" s="6">
         <f t="shared" si="12"/>
         <v>49</v>
       </c>
@@ -5861,7 +5868,7 @@
       </c>
     </row>
     <row r="411" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B411">
+      <c r="B411" s="6">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
@@ -5874,7 +5881,7 @@
       </c>
     </row>
     <row r="412" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B412">
+      <c r="B412" s="6">
         <f t="shared" si="12"/>
         <v>49</v>
       </c>
@@ -5887,7 +5894,7 @@
       </c>
     </row>
     <row r="413" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B413">
+      <c r="B413" s="6">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
@@ -5900,7 +5907,7 @@
       </c>
     </row>
     <row r="414" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B414">
+      <c r="B414" s="6">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
@@ -5913,7 +5920,7 @@
       </c>
     </row>
     <row r="415" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B415">
+      <c r="B415" s="6">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
@@ -5926,7 +5933,7 @@
       </c>
     </row>
     <row r="416" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B416">
+      <c r="B416" s="6">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
@@ -5939,7 +5946,7 @@
       </c>
     </row>
     <row r="417" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B417">
+      <c r="B417" s="6">
         <f t="shared" si="12"/>
         <v>49</v>
       </c>
@@ -5952,7 +5959,7 @@
       </c>
     </row>
     <row r="418" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B418">
+      <c r="B418" s="6">
         <f t="shared" si="12"/>
         <v>65</v>
       </c>
@@ -5965,7 +5972,7 @@
       </c>
     </row>
     <row r="419" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B419">
+      <c r="B419" s="6">
         <f t="shared" si="12"/>
         <v>68</v>
       </c>
@@ -5978,7 +5985,7 @@
       </c>
     </row>
     <row r="420" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B420">
+      <c r="B420" s="6">
         <f t="shared" si="12"/>
         <v>95</v>
       </c>
@@ -5991,7 +5998,7 @@
       </c>
     </row>
     <row r="421" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B421">
+      <c r="B421" s="6">
         <f t="shared" si="12"/>
         <v>107</v>
       </c>
@@ -6004,7 +6011,7 @@
       </c>
     </row>
     <row r="422" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B422">
+      <c r="B422" s="6">
         <f t="shared" si="12"/>
         <v>110</v>
       </c>
@@ -6017,7 +6024,7 @@
       </c>
     </row>
     <row r="423" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B423">
+      <c r="B423" s="6">
         <f t="shared" si="12"/>
         <v>111</v>
       </c>
@@ -6030,7 +6037,7 @@
       </c>
     </row>
     <row r="424" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B424">
+      <c r="B424" s="6">
         <f t="shared" si="12"/>
         <v>99</v>
       </c>
@@ -6043,7 +6050,7 @@
       </c>
     </row>
     <row r="425" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B425">
+      <c r="B425" s="6">
         <f t="shared" si="12"/>
         <v>107</v>
       </c>
@@ -6056,7 +6063,7 @@
       </c>
     </row>
     <row r="426" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B426">
+      <c r="B426" s="6">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
@@ -6069,7 +6076,7 @@
       </c>
     </row>
     <row r="427" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B427">
+      <c r="B427" s="6">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
@@ -6083,7 +6090,7 @@
       </c>
     </row>
     <row r="428" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B428">
+      <c r="B428" s="6">
         <f t="shared" si="12"/>
         <v>49</v>
       </c>
@@ -6096,7 +6103,7 @@
       </c>
     </row>
     <row r="429" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B429">
+      <c r="B429" s="6">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
@@ -6109,7 +6116,7 @@
       </c>
     </row>
     <row r="430" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B430">
+      <c r="B430" s="6">
         <f t="shared" si="12"/>
         <v>49</v>
       </c>
@@ -6122,7 +6129,7 @@
       </c>
     </row>
     <row r="431" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B431">
+      <c r="B431" s="6">
         <f t="shared" si="12"/>
         <v>49</v>
       </c>
@@ -6135,7 +6142,7 @@
       </c>
     </row>
     <row r="432" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B432">
+      <c r="B432" s="6">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
@@ -6148,7 +6155,7 @@
       </c>
     </row>
     <row r="433" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B433">
+      <c r="B433" s="6">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
@@ -6161,7 +6168,7 @@
       </c>
     </row>
     <row r="434" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B434">
+      <c r="B434" s="6">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
@@ -6174,7 +6181,7 @@
       </c>
     </row>
     <row r="435" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B435">
+      <c r="B435" s="6">
         <f t="shared" si="12"/>
         <v>49</v>
       </c>
@@ -6187,7 +6194,7 @@
       </c>
     </row>
     <row r="436" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B436">
+      <c r="B436" s="6">
         <f t="shared" si="12"/>
         <v>65</v>
       </c>
@@ -6200,7 +6207,7 @@
       </c>
     </row>
     <row r="437" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B437">
+      <c r="B437" s="6">
         <f t="shared" si="12"/>
         <v>68</v>
       </c>
@@ -6213,7 +6220,7 @@
       </c>
     </row>
     <row r="438" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B438">
+      <c r="B438" s="6">
         <f t="shared" si="12"/>
         <v>95</v>
       </c>
@@ -6226,7 +6233,7 @@
       </c>
     </row>
     <row r="439" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B439">
+      <c r="B439" s="6">
         <f t="shared" si="12"/>
         <v>107</v>
       </c>
@@ -6239,7 +6246,7 @@
       </c>
     </row>
     <row r="440" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B440">
+      <c r="B440" s="6">
         <f t="shared" si="12"/>
         <v>121</v>
       </c>
@@ -6252,7 +6259,7 @@
       </c>
     </row>
     <row r="441" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B441">
+      <c r="B441" s="6">
         <f t="shared" si="12"/>
         <v>108</v>
       </c>
@@ -6265,7 +6272,7 @@
       </c>
     </row>
     <row r="442" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B442">
+      <c r="B442" s="6">
         <f t="shared" si="12"/>
         <v>118</v>
       </c>
@@ -6278,7 +6285,7 @@
       </c>
     </row>
     <row r="443" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B443">
+      <c r="B443" s="6">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
@@ -6291,7 +6298,7 @@
       </c>
     </row>
     <row r="444" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B444">
+      <c r="B444" s="6">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
@@ -6305,7 +6312,7 @@
       </c>
     </row>
     <row r="445" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B445">
+      <c r="B445" s="6">
         <f t="shared" si="12"/>
         <v>49</v>
       </c>
@@ -6318,7 +6325,7 @@
       </c>
     </row>
     <row r="446" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B446">
+      <c r="B446" s="6">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
@@ -6331,7 +6338,7 @@
       </c>
     </row>
     <row r="447" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B447">
+      <c r="B447" s="6">
         <f t="shared" si="12"/>
         <v>49</v>
       </c>
@@ -6344,7 +6351,7 @@
       </c>
     </row>
     <row r="448" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B448">
+      <c r="B448" s="6">
         <f t="shared" si="12"/>
         <v>54</v>
       </c>
@@ -6357,7 +6364,7 @@
       </c>
     </row>
     <row r="449" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B449">
+      <c r="B449" s="6">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
@@ -6370,7 +6377,7 @@
       </c>
     </row>
     <row r="450" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B450">
+      <c r="B450" s="6">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
@@ -6383,7 +6390,7 @@
       </c>
     </row>
     <row r="451" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B451">
+      <c r="B451" s="6">
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
@@ -6396,7 +6403,7 @@
       </c>
     </row>
     <row r="452" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B452">
+      <c r="B452" s="6">
         <f t="shared" ref="B452:B515" si="14">HEX2DEC(D452)</f>
         <v>49</v>
       </c>
@@ -6409,7 +6416,7 @@
       </c>
     </row>
     <row r="453" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B453">
+      <c r="B453" s="6">
         <f t="shared" si="14"/>
         <v>65</v>
       </c>
@@ -6422,7 +6429,7 @@
       </c>
     </row>
     <row r="454" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B454">
+      <c r="B454" s="6">
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
@@ -6435,7 +6442,7 @@
       </c>
     </row>
     <row r="455" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B455">
+      <c r="B455" s="6">
         <f t="shared" si="14"/>
         <v>95</v>
       </c>
@@ -6448,7 +6455,7 @@
       </c>
     </row>
     <row r="456" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B456">
+      <c r="B456" s="6">
         <f t="shared" si="14"/>
         <v>69</v>
       </c>
@@ -6461,7 +6468,7 @@
       </c>
     </row>
     <row r="457" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B457">
+      <c r="B457" s="6">
         <f t="shared" si="14"/>
         <v>71</v>
       </c>
@@ -6474,7 +6481,7 @@
       </c>
     </row>
     <row r="458" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B458">
+      <c r="B458" s="6">
         <f t="shared" si="14"/>
         <v>82</v>
       </c>
@@ -6487,7 +6494,7 @@
       </c>
     </row>
     <row r="459" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B459">
+      <c r="B459" s="6">
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
@@ -6500,7 +6507,7 @@
       </c>
     </row>
     <row r="460" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B460">
+      <c r="B460" s="6">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
@@ -6514,7 +6521,7 @@
       </c>
     </row>
     <row r="461" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B461">
+      <c r="B461" s="6">
         <f t="shared" si="14"/>
         <v>49</v>
       </c>
@@ -6527,7 +6534,7 @@
       </c>
     </row>
     <row r="462" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B462">
+      <c r="B462" s="6">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
@@ -6540,7 +6547,7 @@
       </c>
     </row>
     <row r="463" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B463">
+      <c r="B463" s="6">
         <f t="shared" si="14"/>
         <v>49</v>
       </c>
@@ -6553,7 +6560,7 @@
       </c>
     </row>
     <row r="464" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B464">
+      <c r="B464" s="6">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
@@ -6566,7 +6573,7 @@
       </c>
     </row>
     <row r="465" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B465">
+      <c r="B465" s="6">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
@@ -6579,7 +6586,7 @@
       </c>
     </row>
     <row r="466" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B466">
+      <c r="B466" s="6">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
@@ -6592,7 +6599,7 @@
       </c>
     </row>
     <row r="467" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B467">
+      <c r="B467" s="6">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
@@ -6605,7 +6612,7 @@
       </c>
     </row>
     <row r="468" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B468">
+      <c r="B468" s="6">
         <f t="shared" si="14"/>
         <v>49</v>
       </c>
@@ -6618,7 +6625,7 @@
       </c>
     </row>
     <row r="469" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B469">
+      <c r="B469" s="6">
         <f t="shared" si="14"/>
         <v>65</v>
       </c>
@@ -6631,7 +6638,7 @@
       </c>
     </row>
     <row r="470" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B470">
+      <c r="B470" s="6">
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
@@ -6644,7 +6651,7 @@
       </c>
     </row>
     <row r="471" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B471">
+      <c r="B471" s="6">
         <f t="shared" si="14"/>
         <v>95</v>
       </c>
@@ -6657,7 +6664,7 @@
       </c>
     </row>
     <row r="472" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B472">
+      <c r="B472" s="6">
         <f t="shared" si="14"/>
         <v>115</v>
       </c>
@@ -6670,7 +6677,7 @@
       </c>
     </row>
     <row r="473" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B473">
+      <c r="B473" s="6">
         <f t="shared" si="14"/>
         <v>111</v>
       </c>
@@ -6683,7 +6690,7 @@
       </c>
     </row>
     <row r="474" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B474">
+      <c r="B474" s="6">
         <f t="shared" si="14"/>
         <v>110</v>
       </c>
@@ -6696,7 +6703,7 @@
       </c>
     </row>
     <row r="475" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B475">
+      <c r="B475" s="6">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
@@ -6709,7 +6716,7 @@
       </c>
     </row>
     <row r="476" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B476">
+      <c r="B476" s="6">
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
@@ -6722,7 +6729,7 @@
       </c>
     </row>
     <row r="477" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B477">
+      <c r="B477" s="6">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
@@ -6736,7 +6743,7 @@
       </c>
     </row>
     <row r="478" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B478">
+      <c r="B478" s="6">
         <f t="shared" si="14"/>
         <v>49</v>
       </c>
@@ -6749,7 +6756,7 @@
       </c>
     </row>
     <row r="479" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B479">
+      <c r="B479" s="6">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
@@ -6762,7 +6769,7 @@
       </c>
     </row>
     <row r="480" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B480">
+      <c r="B480" s="6">
         <f t="shared" si="14"/>
         <v>49</v>
       </c>
@@ -6775,7 +6782,7 @@
       </c>
     </row>
     <row r="481" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B481">
+      <c r="B481" s="6">
         <f t="shared" si="14"/>
         <v>51</v>
       </c>
@@ -6788,7 +6795,7 @@
       </c>
     </row>
     <row r="482" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B482">
+      <c r="B482" s="6">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
@@ -6801,7 +6808,7 @@
       </c>
     </row>
     <row r="483" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B483">
+      <c r="B483" s="6">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
@@ -6814,7 +6821,7 @@
       </c>
     </row>
     <row r="484" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B484">
+      <c r="B484" s="6">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
@@ -6827,7 +6834,7 @@
       </c>
     </row>
     <row r="485" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B485">
+      <c r="B485" s="6">
         <f t="shared" si="14"/>
         <v>49</v>
       </c>
@@ -6840,7 +6847,7 @@
       </c>
     </row>
     <row r="486" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B486">
+      <c r="B486" s="6">
         <f t="shared" si="14"/>
         <v>80</v>
       </c>
@@ -6853,7 +6860,7 @@
       </c>
     </row>
     <row r="487" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B487">
+      <c r="B487" s="6">
         <f t="shared" si="14"/>
         <v>95</v>
       </c>
@@ -6866,7 +6873,7 @@
       </c>
     </row>
     <row r="488" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B488">
+      <c r="B488" s="6">
         <f t="shared" si="14"/>
         <v>77</v>
       </c>
@@ -6879,7 +6886,7 @@
       </c>
     </row>
     <row r="489" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B489">
+      <c r="B489" s="6">
         <f t="shared" si="14"/>
         <v>97</v>
       </c>
@@ -6892,7 +6899,7 @@
       </c>
     </row>
     <row r="490" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B490">
+      <c r="B490" s="6">
         <f t="shared" si="14"/>
         <v>110</v>
       </c>
@@ -6905,7 +6912,7 @@
       </c>
     </row>
     <row r="491" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B491">
+      <c r="B491" s="6">
         <f t="shared" si="14"/>
         <v>105</v>
       </c>
@@ -6918,7 +6925,7 @@
       </c>
     </row>
     <row r="492" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B492">
+      <c r="B492" s="6">
         <f t="shared" si="14"/>
         <v>102</v>
       </c>
@@ -6931,7 +6938,7 @@
       </c>
     </row>
     <row r="493" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B493">
+      <c r="B493" s="6">
         <f t="shared" si="14"/>
         <v>111</v>
       </c>
@@ -6944,7 +6951,7 @@
       </c>
     </row>
     <row r="494" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B494">
+      <c r="B494" s="6">
         <f t="shared" si="14"/>
         <v>108</v>
       </c>
@@ -6957,7 +6964,7 @@
       </c>
     </row>
     <row r="495" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B495">
+      <c r="B495" s="6">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
@@ -6970,7 +6977,7 @@
       </c>
     </row>
     <row r="496" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B496">
+      <c r="B496" s="6">
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
@@ -6983,7 +6990,7 @@
       </c>
     </row>
     <row r="497" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B497">
+      <c r="B497" s="6">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
@@ -6997,7 +7004,7 @@
       </c>
     </row>
     <row r="498" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B498">
+      <c r="B498" s="6">
         <f t="shared" si="14"/>
         <v>49</v>
       </c>
@@ -7010,7 +7017,7 @@
       </c>
     </row>
     <row r="499" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B499">
+      <c r="B499" s="6">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
@@ -7023,7 +7030,7 @@
       </c>
     </row>
     <row r="500" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B500">
+      <c r="B500" s="6">
         <f t="shared" si="14"/>
         <v>49</v>
       </c>
@@ -7036,7 +7043,7 @@
       </c>
     </row>
     <row r="501" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B501">
+      <c r="B501" s="6">
         <f t="shared" si="14"/>
         <v>52</v>
       </c>
@@ -7049,7 +7056,7 @@
       </c>
     </row>
     <row r="502" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B502">
+      <c r="B502" s="6">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
@@ -7062,7 +7069,7 @@
       </c>
     </row>
     <row r="503" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B503">
+      <c r="B503" s="6">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
@@ -7075,7 +7082,7 @@
       </c>
     </row>
     <row r="504" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B504">
+      <c r="B504" s="6">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
@@ -7088,7 +7095,7 @@
       </c>
     </row>
     <row r="505" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B505">
+      <c r="B505" s="6">
         <f t="shared" si="14"/>
         <v>49</v>
       </c>
@@ -7101,7 +7108,7 @@
       </c>
     </row>
     <row r="506" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B506">
+      <c r="B506" s="6">
         <f t="shared" si="14"/>
         <v>65</v>
       </c>
@@ -7114,7 +7121,7 @@
       </c>
     </row>
     <row r="507" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B507">
+      <c r="B507" s="6">
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
@@ -7127,7 +7134,7 @@
       </c>
     </row>
     <row r="508" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B508">
+      <c r="B508" s="6">
         <f t="shared" si="14"/>
         <v>95</v>
       </c>
@@ -7140,7 +7147,7 @@
       </c>
     </row>
     <row r="509" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B509">
+      <c r="B509" s="6">
         <f t="shared" si="14"/>
         <v>108</v>
       </c>
@@ -7153,7 +7160,7 @@
       </c>
     </row>
     <row r="510" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B510">
+      <c r="B510" s="6">
         <f t="shared" si="14"/>
         <v>117</v>
       </c>
@@ -7166,7 +7173,7 @@
       </c>
     </row>
     <row r="511" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B511">
+      <c r="B511" s="6">
         <f t="shared" si="14"/>
         <v>102</v>
       </c>
@@ -7179,7 +7186,7 @@
       </c>
     </row>
     <row r="512" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B512">
+      <c r="B512" s="6">
         <f t="shared" si="14"/>
         <v>116</v>
       </c>
@@ -7192,7 +7199,7 @@
       </c>
     </row>
     <row r="513" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B513">
+      <c r="B513" s="6">
         <f t="shared" si="14"/>
         <v>116</v>
       </c>
@@ -7205,7 +7212,7 @@
       </c>
     </row>
     <row r="514" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B514">
+      <c r="B514" s="6">
         <f t="shared" si="14"/>
         <v>101</v>
       </c>
@@ -7218,7 +7225,7 @@
       </c>
     </row>
     <row r="515" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B515">
+      <c r="B515" s="6">
         <f t="shared" si="14"/>
         <v>109</v>
       </c>
@@ -7231,7 +7238,7 @@
       </c>
     </row>
     <row r="516" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B516">
+      <c r="B516" s="6">
         <f t="shared" ref="B516:B579" si="16">HEX2DEC(D516)</f>
         <v>112</v>
       </c>
@@ -7244,7 +7251,7 @@
       </c>
     </row>
     <row r="517" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B517">
+      <c r="B517" s="6">
         <f t="shared" si="16"/>
         <v>13</v>
       </c>
@@ -7257,7 +7264,7 @@
       </c>
     </row>
     <row r="518" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B518">
+      <c r="B518" s="6">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
@@ -7271,7 +7278,7 @@
       </c>
     </row>
     <row r="519" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B519">
+      <c r="B519" s="6">
         <f t="shared" si="16"/>
         <v>49</v>
       </c>
@@ -7284,7 +7291,7 @@
       </c>
     </row>
     <row r="520" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B520">
+      <c r="B520" s="6">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
@@ -7297,7 +7304,7 @@
       </c>
     </row>
     <row r="521" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B521">
+      <c r="B521" s="6">
         <f t="shared" si="16"/>
         <v>49</v>
       </c>
@@ -7310,7 +7317,7 @@
       </c>
     </row>
     <row r="522" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B522">
+      <c r="B522" s="6">
         <f t="shared" si="16"/>
         <v>53</v>
       </c>
@@ -7323,7 +7330,7 @@
       </c>
     </row>
     <row r="523" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B523">
+      <c r="B523" s="6">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
@@ -7336,7 +7343,7 @@
       </c>
     </row>
     <row r="524" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B524">
+      <c r="B524" s="6">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
@@ -7349,7 +7356,7 @@
       </c>
     </row>
     <row r="525" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B525">
+      <c r="B525" s="6">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
@@ -7362,7 +7369,7 @@
       </c>
     </row>
     <row r="526" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B526">
+      <c r="B526" s="6">
         <f t="shared" si="16"/>
         <v>49</v>
       </c>
@@ -7375,7 +7382,7 @@
       </c>
     </row>
     <row r="527" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B527">
+      <c r="B527" s="6">
         <f t="shared" si="16"/>
         <v>65</v>
       </c>
@@ -7388,7 +7395,7 @@
       </c>
     </row>
     <row r="528" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B528">
+      <c r="B528" s="6">
         <f t="shared" si="16"/>
         <v>68</v>
       </c>
@@ -7401,7 +7408,7 @@
       </c>
     </row>
     <row r="529" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B529">
+      <c r="B529" s="6">
         <f t="shared" si="16"/>
         <v>95</v>
       </c>
@@ -7414,7 +7421,7 @@
       </c>
     </row>
     <row r="530" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B530">
+      <c r="B530" s="6">
         <f t="shared" si="16"/>
         <v>116</v>
       </c>
@@ -7427,7 +7434,7 @@
       </c>
     </row>
     <row r="531" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B531">
+      <c r="B531" s="6">
         <f t="shared" si="16"/>
         <v>114</v>
       </c>
@@ -7440,7 +7447,7 @@
       </c>
     </row>
     <row r="532" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B532">
+      <c r="B532" s="6">
         <f t="shared" si="16"/>
         <v>111</v>
       </c>
@@ -7453,7 +7460,7 @@
       </c>
     </row>
     <row r="533" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B533">
+      <c r="B533" s="6">
         <f t="shared" si="16"/>
         <v>116</v>
       </c>
@@ -7466,7 +7473,7 @@
       </c>
     </row>
     <row r="534" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B534">
+      <c r="B534" s="6">
         <f t="shared" si="16"/>
         <v>13</v>
       </c>
@@ -7479,7 +7486,7 @@
       </c>
     </row>
     <row r="535" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B535">
+      <c r="B535" s="6">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
@@ -7493,7 +7500,7 @@
       </c>
     </row>
     <row r="536" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B536">
+      <c r="B536" s="6">
         <f t="shared" si="16"/>
         <v>49</v>
       </c>
@@ -7506,7 +7513,7 @@
       </c>
     </row>
     <row r="537" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B537">
+      <c r="B537" s="6">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
@@ -7519,7 +7526,7 @@
       </c>
     </row>
     <row r="538" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B538">
+      <c r="B538" s="6">
         <f t="shared" si="16"/>
         <v>53</v>
       </c>
@@ -7532,7 +7539,7 @@
       </c>
     </row>
     <row r="539" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B539">
+      <c r="B539" s="6">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -7545,7 +7552,7 @@
       </c>
     </row>
     <row r="540" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B540">
+      <c r="B540" s="6">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
@@ -7558,7 +7565,7 @@
       </c>
     </row>
     <row r="541" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B541">
+      <c r="B541" s="6">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
@@ -7571,7 +7578,7 @@
       </c>
     </row>
     <row r="542" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B542">
+      <c r="B542" s="6">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
@@ -7584,7 +7591,7 @@
       </c>
     </row>
     <row r="543" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B543">
+      <c r="B543" s="6">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
@@ -7597,7 +7604,7 @@
       </c>
     </row>
     <row r="544" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B544">
+      <c r="B544" s="6">
         <f t="shared" si="16"/>
         <v>76</v>
       </c>
@@ -7610,7 +7617,7 @@
       </c>
     </row>
     <row r="545" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B545">
+      <c r="B545" s="6">
         <f t="shared" si="16"/>
         <v>104</v>
       </c>
@@ -7623,7 +7630,7 @@
       </c>
     </row>
     <row r="546" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B546">
+      <c r="B546" s="6">
         <f t="shared" si="16"/>
         <v>111</v>
       </c>
@@ -7636,7 +7643,7 @@
       </c>
     </row>
     <row r="547" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B547">
+      <c r="B547" s="6">
         <f t="shared" si="16"/>
         <v>109</v>
       </c>
@@ -7649,7 +7656,7 @@
       </c>
     </row>
     <row r="548" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B548">
+      <c r="B548" s="6">
         <f t="shared" si="16"/>
         <v>101</v>
       </c>
@@ -7662,7 +7669,7 @@
       </c>
     </row>
     <row r="549" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B549">
+      <c r="B549" s="6">
         <f t="shared" si="16"/>
         <v>80</v>
       </c>
@@ -7675,7 +7682,7 @@
       </c>
     </row>
     <row r="550" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B550">
+      <c r="B550" s="6">
         <f t="shared" si="16"/>
         <v>109</v>
       </c>
@@ -7688,7 +7695,7 @@
       </c>
     </row>
     <row r="551" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B551">
+      <c r="B551" s="6">
         <f t="shared" si="16"/>
         <v>97</v>
       </c>
@@ -7701,7 +7708,7 @@
       </c>
     </row>
     <row r="552" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B552">
+      <c r="B552" s="6">
         <f t="shared" si="16"/>
         <v>110</v>
       </c>
@@ -7714,7 +7721,7 @@
       </c>
     </row>
     <row r="553" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B553">
+      <c r="B553" s="6">
         <f t="shared" si="16"/>
         <v>105</v>
       </c>
@@ -7727,7 +7734,7 @@
       </c>
     </row>
     <row r="554" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B554">
+      <c r="B554" s="6">
         <f t="shared" si="16"/>
         <v>102</v>
       </c>
@@ -7740,7 +7747,7 @@
       </c>
     </row>
     <row r="555" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B555">
+      <c r="B555" s="6">
         <f t="shared" si="16"/>
         <v>111</v>
       </c>
@@ -7753,7 +7760,7 @@
       </c>
     </row>
     <row r="556" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B556">
+      <c r="B556" s="6">
         <f t="shared" si="16"/>
         <v>108</v>
       </c>
@@ -7766,7 +7773,7 @@
       </c>
     </row>
     <row r="557" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B557">
+      <c r="B557" s="6">
         <f t="shared" si="16"/>
         <v>100</v>
       </c>
@@ -7779,7 +7786,7 @@
       </c>
     </row>
     <row r="558" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B558">
+      <c r="B558" s="6">
         <f t="shared" si="16"/>
         <v>13</v>
       </c>
@@ -7792,7 +7799,7 @@
       </c>
     </row>
     <row r="559" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B559">
+      <c r="B559" s="6">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
@@ -7806,7 +7813,7 @@
       </c>
     </row>
     <row r="560" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B560">
+      <c r="B560" s="6">
         <f t="shared" si="16"/>
         <v>49</v>
       </c>
@@ -7819,7 +7826,7 @@
       </c>
     </row>
     <row r="561" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B561">
+      <c r="B561" s="6">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
@@ -7832,7 +7839,7 @@
       </c>
     </row>
     <row r="562" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B562">
+      <c r="B562" s="6">
         <f t="shared" si="16"/>
         <v>49</v>
       </c>
@@ -7845,7 +7852,7 @@
       </c>
     </row>
     <row r="563" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B563">
+      <c r="B563" s="6">
         <f t="shared" si="16"/>
         <v>56</v>
       </c>
@@ -7858,7 +7865,7 @@
       </c>
     </row>
     <row r="564" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B564">
+      <c r="B564" s="6">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
@@ -7871,7 +7878,7 @@
       </c>
     </row>
     <row r="565" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B565">
+      <c r="B565" s="6">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
@@ -7884,7 +7891,7 @@
       </c>
     </row>
     <row r="566" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B566">
+      <c r="B566" s="6">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
@@ -7897,7 +7904,7 @@
       </c>
     </row>
     <row r="567" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B567">
+      <c r="B567" s="6">
         <f t="shared" si="16"/>
         <v>49</v>
       </c>
@@ -7910,7 +7917,7 @@
       </c>
     </row>
     <row r="568" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B568">
+      <c r="B568" s="6">
         <f t="shared" si="16"/>
         <v>76</v>
       </c>
@@ -7923,7 +7930,7 @@
       </c>
     </row>
     <row r="569" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B569">
+      <c r="B569" s="6">
         <f t="shared" si="16"/>
         <v>109</v>
       </c>
@@ -7936,7 +7943,7 @@
       </c>
     </row>
     <row r="570" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B570">
+      <c r="B570" s="6">
         <f t="shared" si="16"/>
         <v>112</v>
       </c>
@@ -7949,7 +7956,7 @@
       </c>
     </row>
     <row r="571" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B571">
+      <c r="B571" s="6">
         <f t="shared" si="16"/>
         <v>84</v>
       </c>
@@ -7962,7 +7969,7 @@
       </c>
     </row>
     <row r="572" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B572">
+      <c r="B572" s="6">
         <f t="shared" si="16"/>
         <v>104</v>
       </c>
@@ -7975,7 +7982,7 @@
       </c>
     </row>
     <row r="573" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B573">
+      <c r="B573" s="6">
         <f t="shared" si="16"/>
         <v>114</v>
       </c>
@@ -7988,7 +7995,7 @@
       </c>
     </row>
     <row r="574" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B574">
+      <c r="B574" s="6">
         <f t="shared" si="16"/>
         <v>13</v>
       </c>
@@ -8001,7 +8008,7 @@
       </c>
     </row>
     <row r="575" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B575">
+      <c r="B575" s="6">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
@@ -8015,7 +8022,7 @@
       </c>
     </row>
     <row r="576" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B576">
+      <c r="B576" s="6">
         <f t="shared" si="16"/>
         <v>49</v>
       </c>
@@ -8028,7 +8035,7 @@
       </c>
     </row>
     <row r="577" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B577">
+      <c r="B577" s="6">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
@@ -8041,7 +8048,7 @@
       </c>
     </row>
     <row r="578" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B578">
+      <c r="B578" s="6">
         <f t="shared" si="16"/>
         <v>49</v>
       </c>
@@ -8054,7 +8061,7 @@
       </c>
     </row>
     <row r="579" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B579">
+      <c r="B579" s="6">
         <f t="shared" si="16"/>
         <v>55</v>
       </c>
@@ -8067,7 +8074,7 @@
       </c>
     </row>
     <row r="580" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B580">
+      <c r="B580" s="6">
         <f t="shared" ref="B580:B643" si="18">HEX2DEC(D580)</f>
         <v>48</v>
       </c>
@@ -8080,7 +8087,7 @@
       </c>
     </row>
     <row r="581" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B581">
+      <c r="B581" s="6">
         <f t="shared" si="18"/>
         <v>48</v>
       </c>
@@ -8093,7 +8100,7 @@
       </c>
     </row>
     <row r="582" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B582">
+      <c r="B582" s="6">
         <f t="shared" si="18"/>
         <v>48</v>
       </c>
@@ -8106,7 +8113,7 @@
       </c>
     </row>
     <row r="583" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B583">
+      <c r="B583" s="6">
         <f t="shared" si="18"/>
         <v>49</v>
       </c>
@@ -8119,7 +8126,7 @@
       </c>
     </row>
     <row r="584" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B584">
+      <c r="B584" s="6">
         <f t="shared" si="18"/>
         <v>65</v>
       </c>
@@ -8132,7 +8139,7 @@
       </c>
     </row>
     <row r="585" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B585">
+      <c r="B585" s="6">
         <f t="shared" si="18"/>
         <v>68</v>
       </c>
@@ -8145,7 +8152,7 @@
       </c>
     </row>
     <row r="586" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B586">
+      <c r="B586" s="6">
         <f t="shared" si="18"/>
         <v>95</v>
       </c>
@@ -8158,7 +8165,7 @@
       </c>
     </row>
     <row r="587" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B587">
+      <c r="B587" s="6">
         <f t="shared" si="18"/>
         <v>99</v>
       </c>
@@ -8171,7 +8178,7 @@
       </c>
     </row>
     <row r="588" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B588">
+      <c r="B588" s="6">
         <f t="shared" si="18"/>
         <v>97</v>
       </c>
@@ -8184,7 +8191,7 @@
       </c>
     </row>
     <row r="589" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B589">
+      <c r="B589" s="6">
         <f t="shared" si="18"/>
         <v>116</v>
       </c>
@@ -8197,7 +8204,7 @@
       </c>
     </row>
     <row r="590" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B590">
+      <c r="B590" s="6">
         <f t="shared" si="18"/>
         <v>13</v>
       </c>
@@ -8210,7 +8217,7 @@
       </c>
     </row>
     <row r="591" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B591">
+      <c r="B591" s="6">
         <f t="shared" si="18"/>
         <v>10</v>
       </c>
@@ -8224,7 +8231,7 @@
       </c>
     </row>
     <row r="592" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B592">
+      <c r="B592" s="6">
         <f t="shared" si="18"/>
         <v>49</v>
       </c>
@@ -8237,7 +8244,7 @@
       </c>
     </row>
     <row r="593" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B593">
+      <c r="B593" s="6">
         <f t="shared" si="18"/>
         <v>48</v>
       </c>
@@ -8250,7 +8257,7 @@
       </c>
     </row>
     <row r="594" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B594">
+      <c r="B594" s="6">
         <f t="shared" si="18"/>
         <v>49</v>
       </c>
@@ -8263,7 +8270,7 @@
       </c>
     </row>
     <row r="595" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B595">
+      <c r="B595" s="6">
         <f t="shared" si="18"/>
         <v>65</v>
       </c>
@@ -8276,7 +8283,7 @@
       </c>
     </row>
     <row r="596" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B596">
+      <c r="B596" s="6">
         <f t="shared" si="18"/>
         <v>48</v>
       </c>
@@ -8289,7 +8296,7 @@
       </c>
     </row>
     <row r="597" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B597">
+      <c r="B597" s="6">
         <f t="shared" si="18"/>
         <v>48</v>
       </c>
@@ -8302,7 +8309,7 @@
       </c>
     </row>
     <row r="598" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B598">
+      <c r="B598" s="6">
         <f t="shared" si="18"/>
         <v>48</v>
       </c>
@@ -8315,7 +8322,7 @@
       </c>
     </row>
     <row r="599" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B599">
+      <c r="B599" s="6">
         <f t="shared" si="18"/>
         <v>49</v>
       </c>
@@ -8328,7 +8335,7 @@
       </c>
     </row>
     <row r="600" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B600">
+      <c r="B600" s="6">
         <f t="shared" si="18"/>
         <v>70</v>
       </c>
@@ -8341,7 +8348,7 @@
       </c>
     </row>
     <row r="601" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B601">
+      <c r="B601" s="6">
         <f t="shared" si="18"/>
         <v>108</v>
       </c>
@@ -8354,7 +8361,7 @@
       </c>
     </row>
     <row r="602" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B602">
+      <c r="B602" s="6">
         <f t="shared" si="18"/>
         <v>111</v>
       </c>
@@ -8367,7 +8374,7 @@
       </c>
     </row>
     <row r="603" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B603">
+      <c r="B603" s="6">
         <f t="shared" si="18"/>
         <v>97</v>
       </c>
@@ -8380,7 +8387,7 @@
       </c>
     </row>
     <row r="604" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B604">
+      <c r="B604" s="6">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
@@ -8393,7 +8400,7 @@
       </c>
     </row>
     <row r="605" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B605">
+      <c r="B605" s="6">
         <f t="shared" si="18"/>
         <v>95</v>
       </c>
@@ -8406,7 +8413,7 @@
       </c>
     </row>
     <row r="606" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B606">
+      <c r="B606" s="6">
         <f t="shared" si="18"/>
         <v>118</v>
       </c>
@@ -8419,7 +8426,7 @@
       </c>
     </row>
     <row r="607" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B607">
+      <c r="B607" s="6">
         <f t="shared" si="18"/>
         <v>97</v>
       </c>
@@ -8432,7 +8439,7 @@
       </c>
     </row>
     <row r="608" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B608">
+      <c r="B608" s="6">
         <f t="shared" si="18"/>
         <v>108</v>
       </c>
@@ -8445,7 +8452,7 @@
       </c>
     </row>
     <row r="609" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B609">
+      <c r="B609" s="6">
         <f t="shared" si="18"/>
         <v>117</v>
       </c>
@@ -8458,7 +8465,7 @@
       </c>
     </row>
     <row r="610" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B610">
+      <c r="B610" s="6">
         <f t="shared" si="18"/>
         <v>101</v>
       </c>
@@ -8471,7 +8478,7 @@
       </c>
     </row>
     <row r="611" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B611">
+      <c r="B611" s="6">
         <f t="shared" si="18"/>
         <v>13</v>
       </c>
@@ -8484,7 +8491,7 @@
       </c>
     </row>
     <row r="612" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B612">
+      <c r="B612" s="6">
         <f t="shared" si="18"/>
         <v>10</v>
       </c>
@@ -8498,7 +8505,7 @@
       </c>
     </row>
     <row r="613" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B613">
+      <c r="B613" s="6">
         <f t="shared" si="18"/>
         <v>49</v>
       </c>
@@ -8511,7 +8518,7 @@
       </c>
     </row>
     <row r="614" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B614">
+      <c r="B614" s="6">
         <f t="shared" si="18"/>
         <v>48</v>
       </c>
@@ -8524,7 +8531,7 @@
       </c>
     </row>
     <row r="615" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B615">
+      <c r="B615" s="6">
         <f t="shared" si="18"/>
         <v>49</v>
       </c>
@@ -8537,7 +8544,7 @@
       </c>
     </row>
     <row r="616" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B616">
+      <c r="B616" s="6">
         <f t="shared" si="18"/>
         <v>68</v>
       </c>
@@ -8550,7 +8557,7 @@
       </c>
     </row>
     <row r="617" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B617">
+      <c r="B617" s="6">
         <f t="shared" si="18"/>
         <v>48</v>
       </c>
@@ -8563,7 +8570,7 @@
       </c>
     </row>
     <row r="618" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B618">
+      <c r="B618" s="6">
         <f t="shared" si="18"/>
         <v>48</v>
       </c>
@@ -8576,7 +8583,7 @@
       </c>
     </row>
     <row r="619" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B619">
+      <c r="B619" s="6">
         <f t="shared" si="18"/>
         <v>48</v>
       </c>
@@ -8589,7 +8596,7 @@
       </c>
     </row>
     <row r="620" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B620">
+      <c r="B620" s="6">
         <f t="shared" si="18"/>
         <v>49</v>
       </c>
@@ -8602,7 +8609,7 @@
       </c>
     </row>
     <row r="621" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B621">
+      <c r="B621" s="6">
         <f t="shared" si="18"/>
         <v>67</v>
       </c>
@@ -8615,7 +8622,7 @@
       </c>
     </row>
     <row r="622" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B622">
+      <c r="B622" s="6">
         <f t="shared" si="18"/>
         <v>121</v>
       </c>
@@ -8628,7 +8635,7 @@
       </c>
     </row>
     <row r="623" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B623">
+      <c r="B623" s="6">
         <f t="shared" si="18"/>
         <v>108</v>
       </c>
@@ -8641,7 +8648,7 @@
       </c>
     </row>
     <row r="624" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B624">
+      <c r="B624" s="6">
         <f t="shared" si="18"/>
         <v>95</v>
       </c>
@@ -8654,7 +8661,7 @@
       </c>
     </row>
     <row r="625" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B625">
+      <c r="B625" s="6">
         <f t="shared" si="18"/>
         <v>110</v>
       </c>
@@ -8667,7 +8674,7 @@
       </c>
     </row>
     <row r="626" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B626">
+      <c r="B626" s="6">
         <f t="shared" si="18"/>
         <v>114</v>
       </c>
@@ -8680,7 +8687,7 @@
       </c>
     </row>
     <row r="627" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B627">
+      <c r="B627" s="6">
         <f t="shared" si="18"/>
         <v>13</v>
       </c>
@@ -8693,7 +8700,7 @@
       </c>
     </row>
     <row r="628" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B628">
+      <c r="B628" s="6">
         <f t="shared" si="18"/>
         <v>10</v>
       </c>
@@ -8707,7 +8714,7 @@
       </c>
     </row>
     <row r="629" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B629">
+      <c r="B629" s="6">
         <f t="shared" si="18"/>
         <v>49</v>
       </c>
@@ -8720,7 +8727,7 @@
       </c>
     </row>
     <row r="630" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B630">
+      <c r="B630" s="6">
         <f t="shared" si="18"/>
         <v>57</v>
       </c>
@@ -8733,7 +8740,7 @@
       </c>
     </row>
     <row r="631" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B631">
+      <c r="B631" s="6">
         <f t="shared" si="18"/>
         <v>55</v>
       </c>
@@ -8746,7 +8753,7 @@
       </c>
     </row>
     <row r="632" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B632">
+      <c r="B632" s="6">
         <f t="shared" si="18"/>
         <v>67</v>
       </c>
@@ -8759,7 +8766,7 @@
       </c>
     </row>
     <row r="633" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B633">
+      <c r="B633" s="6">
         <f t="shared" si="18"/>
         <v>48</v>
       </c>
@@ -8772,7 +8779,7 @@
       </c>
     </row>
     <row r="634" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B634">
+      <c r="B634" s="6">
         <f t="shared" si="18"/>
         <v>48</v>
       </c>
@@ -8785,7 +8792,7 @@
       </c>
     </row>
     <row r="635" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B635">
+      <c r="B635" s="6">
         <f t="shared" si="18"/>
         <v>48</v>
       </c>
@@ -8798,7 +8805,7 @@
       </c>
     </row>
     <row r="636" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B636">
+      <c r="B636" s="6">
         <f t="shared" si="18"/>
         <v>49</v>
       </c>
@@ -8811,7 +8818,7 @@
       </c>
     </row>
     <row r="637" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B637">
+      <c r="B637" s="6">
         <f t="shared" si="18"/>
         <v>80</v>
       </c>
@@ -8824,7 +8831,7 @@
       </c>
     </row>
     <row r="638" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B638">
+      <c r="B638" s="6">
         <f t="shared" si="18"/>
         <v>117</v>
       </c>
@@ -8837,7 +8844,7 @@
       </c>
     </row>
     <row r="639" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B639">
+      <c r="B639" s="6">
         <f t="shared" si="18"/>
         <v>114</v>
       </c>
@@ -8850,7 +8857,7 @@
       </c>
     </row>
     <row r="640" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B640">
+      <c r="B640" s="6">
         <f t="shared" si="18"/>
         <v>103</v>
       </c>
@@ -8863,7 +8870,7 @@
       </c>
     </row>
     <row r="641" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B641">
+      <c r="B641" s="6">
         <f t="shared" si="18"/>
         <v>101</v>
       </c>
@@ -8876,7 +8883,7 @@
       </c>
     </row>
     <row r="642" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B642">
+      <c r="B642" s="6">
         <f t="shared" si="18"/>
         <v>95</v>
       </c>
@@ -8889,7 +8896,7 @@
       </c>
     </row>
     <row r="643" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B643">
+      <c r="B643" s="6">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
@@ -8902,7 +8909,7 @@
       </c>
     </row>
     <row r="644" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B644">
+      <c r="B644" s="6">
         <f t="shared" ref="B644:B707" si="20">HEX2DEC(D644)</f>
         <v>117</v>
       </c>
@@ -8915,7 +8922,7 @@
       </c>
     </row>
     <row r="645" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B645">
+      <c r="B645" s="6">
         <f t="shared" si="20"/>
         <v>116</v>
       </c>
@@ -8928,7 +8935,7 @@
       </c>
     </row>
     <row r="646" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B646">
+      <c r="B646" s="6">
         <f t="shared" si="20"/>
         <v>121</v>
       </c>
@@ -8941,7 +8948,7 @@
       </c>
     </row>
     <row r="647" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B647">
+      <c r="B647" s="6">
         <f t="shared" si="20"/>
         <v>13</v>
       </c>
@@ -8954,7 +8961,7 @@
       </c>
     </row>
     <row r="648" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B648">
+      <c r="B648" s="6">
         <f t="shared" si="20"/>
         <v>10</v>
       </c>
@@ -8968,7 +8975,7 @@
       </c>
     </row>
     <row r="649" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B649">
+      <c r="B649" s="6">
         <f t="shared" si="20"/>
         <v>49</v>
       </c>
@@ -8981,7 +8988,7 @@
       </c>
     </row>
     <row r="650" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B650">
+      <c r="B650" s="6">
         <f t="shared" si="20"/>
         <v>57</v>
       </c>
@@ -8994,7 +9001,7 @@
       </c>
     </row>
     <row r="651" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B651">
+      <c r="B651" s="6">
         <f t="shared" si="20"/>
         <v>55</v>
       </c>
@@ -9007,7 +9014,7 @@
       </c>
     </row>
     <row r="652" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B652">
+      <c r="B652" s="6">
         <f t="shared" si="20"/>
         <v>68</v>
       </c>
@@ -9020,7 +9027,7 @@
       </c>
     </row>
     <row r="653" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B653">
+      <c r="B653" s="6">
         <f t="shared" si="20"/>
         <v>48</v>
       </c>
@@ -9033,7 +9040,7 @@
       </c>
     </row>
     <row r="654" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B654">
+      <c r="B654" s="6">
         <f t="shared" si="20"/>
         <v>48</v>
       </c>
@@ -9046,7 +9053,7 @@
       </c>
     </row>
     <row r="655" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B655">
+      <c r="B655" s="6">
         <f t="shared" si="20"/>
         <v>48</v>
       </c>
@@ -9059,7 +9066,7 @@
       </c>
     </row>
     <row r="656" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B656">
+      <c r="B656" s="6">
         <f t="shared" si="20"/>
         <v>49</v>
       </c>
@@ -9072,7 +9079,7 @@
       </c>
     </row>
     <row r="657" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B657">
+      <c r="B657" s="6">
         <f t="shared" si="20"/>
         <v>80</v>
       </c>
@@ -9085,7 +9092,7 @@
       </c>
     </row>
     <row r="658" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B658">
+      <c r="B658" s="6">
         <f t="shared" si="20"/>
         <v>117</v>
       </c>
@@ -9098,7 +9105,7 @@
       </c>
     </row>
     <row r="659" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B659">
+      <c r="B659" s="6">
         <f t="shared" si="20"/>
         <v>114</v>
       </c>
@@ -9111,7 +9118,7 @@
       </c>
     </row>
     <row r="660" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B660">
+      <c r="B660" s="6">
         <f t="shared" si="20"/>
         <v>103</v>
       </c>
@@ -9124,7 +9131,7 @@
       </c>
     </row>
     <row r="661" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B661">
+      <c r="B661" s="6">
         <f t="shared" si="20"/>
         <v>101</v>
       </c>
@@ -9137,7 +9144,7 @@
       </c>
     </row>
     <row r="662" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B662">
+      <c r="B662" s="6">
         <f t="shared" si="20"/>
         <v>95</v>
       </c>
@@ -9150,7 +9157,7 @@
       </c>
     </row>
     <row r="663" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B663">
+      <c r="B663" s="6">
         <f t="shared" si="20"/>
         <v>97</v>
       </c>
@@ -9163,7 +9170,7 @@
       </c>
     </row>
     <row r="664" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B664">
+      <c r="B664" s="6">
         <f t="shared" si="20"/>
         <v>100</v>
       </c>
@@ -9176,7 +9183,7 @@
       </c>
     </row>
     <row r="665" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B665">
+      <c r="B665" s="6">
         <f t="shared" si="20"/>
         <v>97</v>
       </c>
@@ -9189,7 +9196,7 @@
       </c>
     </row>
     <row r="666" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B666">
+      <c r="B666" s="6">
         <f t="shared" si="20"/>
         <v>112</v>
       </c>
@@ -9202,7 +9209,7 @@
       </c>
     </row>
     <row r="667" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B667">
+      <c r="B667" s="6">
         <f t="shared" si="20"/>
         <v>116</v>
       </c>
@@ -9215,7 +9222,7 @@
       </c>
     </row>
     <row r="668" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B668">
+      <c r="B668" s="6">
         <f t="shared" si="20"/>
         <v>95</v>
       </c>
@@ -9228,7 +9235,7 @@
       </c>
     </row>
     <row r="669" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B669">
+      <c r="B669" s="6">
         <f t="shared" si="20"/>
         <v>99</v>
       </c>
@@ -9241,7 +9248,7 @@
       </c>
     </row>
     <row r="670" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B670">
+      <c r="B670" s="6">
         <f t="shared" si="20"/>
         <v>116</v>
       </c>
@@ -9254,7 +9261,7 @@
       </c>
     </row>
     <row r="671" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B671">
+      <c r="B671" s="6">
         <f t="shared" si="20"/>
         <v>104</v>
       </c>
@@ -9267,7 +9274,7 @@
       </c>
     </row>
     <row r="672" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B672">
+      <c r="B672" s="6">
         <f t="shared" si="20"/>
         <v>114</v>
       </c>
@@ -9280,7 +9287,7 @@
       </c>
     </row>
     <row r="673" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B673">
+      <c r="B673" s="6">
         <f t="shared" si="20"/>
         <v>13</v>
       </c>
@@ -9293,7 +9300,7 @@
       </c>
     </row>
     <row r="674" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B674">
+      <c r="B674" s="6">
         <f t="shared" si="20"/>
         <v>10</v>
       </c>
@@ -9307,7 +9314,7 @@
       </c>
     </row>
     <row r="675" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B675">
+      <c r="B675" s="6">
         <f t="shared" si="20"/>
         <v>49</v>
       </c>
@@ -9320,7 +9327,7 @@
       </c>
     </row>
     <row r="676" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B676">
+      <c r="B676" s="6">
         <f t="shared" si="20"/>
         <v>57</v>
       </c>
@@ -9333,7 +9340,7 @@
       </c>
     </row>
     <row r="677" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B677">
+      <c r="B677" s="6">
         <f t="shared" si="20"/>
         <v>55</v>
       </c>
@@ -9346,7 +9353,7 @@
       </c>
     </row>
     <row r="678" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B678">
+      <c r="B678" s="6">
         <f t="shared" si="20"/>
         <v>69</v>
       </c>
@@ -9359,7 +9366,7 @@
       </c>
     </row>
     <row r="679" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B679">
+      <c r="B679" s="6">
         <f t="shared" si="20"/>
         <v>48</v>
       </c>
@@ -9372,7 +9379,7 @@
       </c>
     </row>
     <row r="680" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B680">
+      <c r="B680" s="6">
         <f t="shared" si="20"/>
         <v>48</v>
       </c>
@@ -9385,7 +9392,7 @@
       </c>
     </row>
     <row r="681" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B681">
+      <c r="B681" s="6">
         <f t="shared" si="20"/>
         <v>48</v>
       </c>
@@ -9398,7 +9405,7 @@
       </c>
     </row>
     <row r="682" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B682">
+      <c r="B682" s="6">
         <f t="shared" si="20"/>
         <v>49</v>
       </c>
@@ -9411,7 +9418,7 @@
       </c>
     </row>
     <row r="683" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B683">
+      <c r="B683" s="6">
         <f t="shared" si="20"/>
         <v>80</v>
       </c>
@@ -9424,7 +9431,7 @@
       </c>
     </row>
     <row r="684" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B684">
+      <c r="B684" s="6">
         <f t="shared" si="20"/>
         <v>117</v>
       </c>
@@ -9437,7 +9444,7 @@
       </c>
     </row>
     <row r="685" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B685">
+      <c r="B685" s="6">
         <f t="shared" si="20"/>
         <v>114</v>
       </c>
@@ -9450,7 +9457,7 @@
       </c>
     </row>
     <row r="686" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B686">
+      <c r="B686" s="6">
         <f t="shared" si="20"/>
         <v>103</v>
       </c>
@@ -9463,7 +9470,7 @@
       </c>
     </row>
     <row r="687" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B687">
+      <c r="B687" s="6">
         <f t="shared" si="20"/>
         <v>101</v>
       </c>
@@ -9476,7 +9483,7 @@
       </c>
     </row>
     <row r="688" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B688">
+      <c r="B688" s="6">
         <f t="shared" si="20"/>
         <v>95</v>
       </c>
@@ -9489,7 +9496,7 @@
       </c>
     </row>
     <row r="689" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B689">
+      <c r="B689" s="6">
         <f t="shared" si="20"/>
         <v>97</v>
       </c>
@@ -9502,7 +9509,7 @@
       </c>
     </row>
     <row r="690" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B690">
+      <c r="B690" s="6">
         <f t="shared" si="20"/>
         <v>100</v>
       </c>
@@ -9515,7 +9522,7 @@
       </c>
     </row>
     <row r="691" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B691">
+      <c r="B691" s="6">
         <f t="shared" si="20"/>
         <v>97</v>
       </c>
@@ -9528,7 +9535,7 @@
       </c>
     </row>
     <row r="692" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B692">
+      <c r="B692" s="6">
         <f t="shared" si="20"/>
         <v>112</v>
       </c>
@@ -9541,7 +9548,7 @@
       </c>
     </row>
     <row r="693" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B693">
+      <c r="B693" s="6">
         <f t="shared" si="20"/>
         <v>116</v>
       </c>
@@ -9554,7 +9561,7 @@
       </c>
     </row>
     <row r="694" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B694">
+      <c r="B694" s="6">
         <f t="shared" si="20"/>
         <v>95</v>
       </c>
@@ -9567,7 +9574,7 @@
       </c>
     </row>
     <row r="695" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B695">
+      <c r="B695" s="6">
         <f t="shared" si="20"/>
         <v>111</v>
       </c>
@@ -9580,7 +9587,7 @@
       </c>
     </row>
     <row r="696" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B696">
+      <c r="B696" s="6">
         <f t="shared" si="20"/>
         <v>116</v>
       </c>
@@ -9593,7 +9600,7 @@
       </c>
     </row>
     <row r="697" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B697">
+      <c r="B697" s="6">
         <f t="shared" si="20"/>
         <v>104</v>
       </c>
@@ -9606,7 +9613,7 @@
       </c>
     </row>
     <row r="698" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B698">
+      <c r="B698" s="6">
         <f t="shared" si="20"/>
         <v>114</v>
       </c>
@@ -9619,7 +9626,7 @@
       </c>
     </row>
     <row r="699" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B699">
+      <c r="B699" s="6">
         <f t="shared" si="20"/>
         <v>13</v>
       </c>
@@ -9632,7 +9639,7 @@
       </c>
     </row>
     <row r="700" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B700">
+      <c r="B700" s="6">
         <f t="shared" si="20"/>
         <v>10</v>
       </c>
@@ -9646,7 +9653,7 @@
       </c>
     </row>
     <row r="701" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B701">
+      <c r="B701" s="6">
         <f t="shared" si="20"/>
         <v>49</v>
       </c>
@@ -9659,7 +9666,7 @@
       </c>
     </row>
     <row r="702" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B702">
+      <c r="B702" s="6">
         <f t="shared" si="20"/>
         <v>57</v>
       </c>
@@ -9672,7 +9679,7 @@
       </c>
     </row>
     <row r="703" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B703">
+      <c r="B703" s="6">
         <f t="shared" si="20"/>
         <v>55</v>
       </c>
@@ -9685,7 +9692,7 @@
       </c>
     </row>
     <row r="704" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B704">
+      <c r="B704" s="6">
         <f t="shared" si="20"/>
         <v>70</v>
       </c>
@@ -9698,7 +9705,7 @@
       </c>
     </row>
     <row r="705" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B705">
+      <c r="B705" s="6">
         <f t="shared" si="20"/>
         <v>48</v>
       </c>
@@ -9711,7 +9718,7 @@
       </c>
     </row>
     <row r="706" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B706">
+      <c r="B706" s="6">
         <f t="shared" si="20"/>
         <v>48</v>
       </c>
@@ -9724,7 +9731,7 @@
       </c>
     </row>
     <row r="707" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B707">
+      <c r="B707" s="6">
         <f t="shared" si="20"/>
         <v>48</v>
       </c>
@@ -9737,7 +9744,7 @@
       </c>
     </row>
     <row r="708" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B708">
+      <c r="B708" s="6">
         <f t="shared" ref="B708:B771" si="22">HEX2DEC(D708)</f>
         <v>49</v>
       </c>
@@ -9750,7 +9757,7 @@
       </c>
     </row>
     <row r="709" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B709">
+      <c r="B709" s="6">
         <f t="shared" si="22"/>
         <v>80</v>
       </c>
@@ -9763,7 +9770,7 @@
       </c>
     </row>
     <row r="710" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B710">
+      <c r="B710" s="6">
         <f t="shared" si="22"/>
         <v>117</v>
       </c>
@@ -9776,7 +9783,7 @@
       </c>
     </row>
     <row r="711" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B711">
+      <c r="B711" s="6">
         <f t="shared" si="22"/>
         <v>114</v>
       </c>
@@ -9789,7 +9796,7 @@
       </c>
     </row>
     <row r="712" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B712">
+      <c r="B712" s="6">
         <f t="shared" si="22"/>
         <v>103</v>
       </c>
@@ -9802,7 +9809,7 @@
       </c>
     </row>
     <row r="713" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B713">
+      <c r="B713" s="6">
         <f t="shared" si="22"/>
         <v>101</v>
       </c>
@@ -9815,7 +9822,7 @@
       </c>
     </row>
     <row r="714" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B714">
+      <c r="B714" s="6">
         <f t="shared" si="22"/>
         <v>95</v>
       </c>
@@ -9828,7 +9835,7 @@
       </c>
     </row>
     <row r="715" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B715">
+      <c r="B715" s="6">
         <f t="shared" si="22"/>
         <v>97</v>
       </c>
@@ -9841,7 +9848,7 @@
       </c>
     </row>
     <row r="716" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B716">
+      <c r="B716" s="6">
         <f t="shared" si="22"/>
         <v>100</v>
       </c>
@@ -9854,7 +9861,7 @@
       </c>
     </row>
     <row r="717" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B717">
+      <c r="B717" s="6">
         <f t="shared" si="22"/>
         <v>97</v>
       </c>
@@ -9867,7 +9874,7 @@
       </c>
     </row>
     <row r="718" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B718">
+      <c r="B718" s="6">
         <f t="shared" si="22"/>
         <v>112</v>
       </c>
@@ -9880,7 +9887,7 @@
       </c>
     </row>
     <row r="719" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B719">
+      <c r="B719" s="6">
         <f t="shared" si="22"/>
         <v>116</v>
       </c>
@@ -9893,7 +9900,7 @@
       </c>
     </row>
     <row r="720" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B720">
+      <c r="B720" s="6">
         <f t="shared" si="22"/>
         <v>95</v>
       </c>
@@ -9906,7 +9913,7 @@
       </c>
     </row>
     <row r="721" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B721">
+      <c r="B721" s="6">
         <f t="shared" si="22"/>
         <v>102</v>
       </c>
@@ -9919,7 +9926,7 @@
       </c>
     </row>
     <row r="722" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B722">
+      <c r="B722" s="6">
         <f t="shared" si="22"/>
         <v>97</v>
       </c>
@@ -9932,7 +9939,7 @@
       </c>
     </row>
     <row r="723" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B723">
+      <c r="B723" s="6">
         <f t="shared" si="22"/>
         <v>107</v>
       </c>
@@ -9945,7 +9952,7 @@
       </c>
     </row>
     <row r="724" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B724">
+      <c r="B724" s="6">
         <f t="shared" si="22"/>
         <v>13</v>
       </c>
@@ -9958,7 +9965,7 @@
       </c>
     </row>
     <row r="725" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B725">
+      <c r="B725" s="6">
         <f t="shared" si="22"/>
         <v>10</v>
       </c>
@@ -9972,7 +9979,7 @@
       </c>
     </row>
     <row r="726" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B726">
+      <c r="B726" s="6">
         <f t="shared" si="22"/>
         <v>49</v>
       </c>
@@ -9985,7 +9992,7 @@
       </c>
     </row>
     <row r="727" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B727">
+      <c r="B727" s="6">
         <f t="shared" si="22"/>
         <v>57</v>
       </c>
@@ -9998,7 +10005,7 @@
       </c>
     </row>
     <row r="728" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B728">
+      <c r="B728" s="6">
         <f t="shared" si="22"/>
         <v>56</v>
       </c>
@@ -10011,7 +10018,7 @@
       </c>
     </row>
     <row r="729" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B729">
+      <c r="B729" s="6">
         <f t="shared" si="22"/>
         <v>48</v>
       </c>
@@ -10024,7 +10031,7 @@
       </c>
     </row>
     <row r="730" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B730">
+      <c r="B730" s="6">
         <f t="shared" si="22"/>
         <v>48</v>
       </c>
@@ -10037,7 +10044,7 @@
       </c>
     </row>
     <row r="731" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B731">
+      <c r="B731" s="6">
         <f t="shared" si="22"/>
         <v>48</v>
       </c>
@@ -10050,7 +10057,7 @@
       </c>
     </row>
     <row r="732" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B732">
+      <c r="B732" s="6">
         <f t="shared" si="22"/>
         <v>48</v>
       </c>
@@ -10063,7 +10070,7 @@
       </c>
     </row>
     <row r="733" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B733">
+      <c r="B733" s="6">
         <f t="shared" si="22"/>
         <v>49</v>
       </c>
@@ -10076,7 +10083,7 @@
       </c>
     </row>
     <row r="734" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B734">
+      <c r="B734" s="6">
         <f t="shared" si="22"/>
         <v>80</v>
       </c>
@@ -10089,7 +10096,7 @@
       </c>
     </row>
     <row r="735" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B735">
+      <c r="B735" s="6">
         <f t="shared" si="22"/>
         <v>117</v>
       </c>
@@ -10102,7 +10109,7 @@
       </c>
     </row>
     <row r="736" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B736">
+      <c r="B736" s="6">
         <f t="shared" si="22"/>
         <v>114</v>
       </c>
@@ -10115,7 +10122,7 @@
       </c>
     </row>
     <row r="737" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B737">
+      <c r="B737" s="6">
         <f t="shared" si="22"/>
         <v>103</v>
       </c>
@@ -10128,7 +10135,7 @@
       </c>
     </row>
     <row r="738" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B738">
+      <c r="B738" s="6">
         <f t="shared" si="22"/>
         <v>101</v>
       </c>
@@ -10141,7 +10148,7 @@
       </c>
     </row>
     <row r="739" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B739">
+      <c r="B739" s="6">
         <f t="shared" si="22"/>
         <v>95</v>
       </c>
@@ -10154,7 +10161,7 @@
       </c>
     </row>
     <row r="740" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B740">
+      <c r="B740" s="6">
         <f t="shared" si="22"/>
         <v>102</v>
       </c>
@@ -10167,7 +10174,7 @@
       </c>
     </row>
     <row r="741" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B741">
+      <c r="B741" s="6">
         <f t="shared" si="22"/>
         <v>114</v>
       </c>
@@ -10180,7 +10187,7 @@
       </c>
     </row>
     <row r="742" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B742">
+      <c r="B742" s="6">
         <f t="shared" si="22"/>
         <v>101</v>
       </c>
@@ -10193,7 +10200,7 @@
       </c>
     </row>
     <row r="743" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B743">
+      <c r="B743" s="6">
         <f t="shared" si="22"/>
         <v>113</v>
       </c>
@@ -10206,7 +10213,7 @@
       </c>
     </row>
     <row r="744" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B744">
+      <c r="B744" s="6">
         <f t="shared" si="22"/>
         <v>13</v>
       </c>
@@ -10219,7 +10226,7 @@
       </c>
     </row>
     <row r="745" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B745">
+      <c r="B745" s="6">
         <f t="shared" si="22"/>
         <v>10</v>
       </c>
@@ -10233,7 +10240,7 @@
       </c>
     </row>
     <row r="746" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B746">
+      <c r="B746" s="6">
         <f t="shared" si="22"/>
         <v>49</v>
       </c>
@@ -10246,7 +10253,7 @@
       </c>
     </row>
     <row r="747" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B747">
+      <c r="B747" s="6">
         <f t="shared" si="22"/>
         <v>48</v>
       </c>
@@ -10259,7 +10266,7 @@
       </c>
     </row>
     <row r="748" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B748">
+      <c r="B748" s="6">
         <f t="shared" si="22"/>
         <v>52</v>
       </c>
@@ -10272,7 +10279,7 @@
       </c>
     </row>
     <row r="749" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B749">
+      <c r="B749" s="6">
         <f t="shared" si="22"/>
         <v>48</v>
       </c>
@@ -10285,7 +10292,7 @@
       </c>
     </row>
     <row r="750" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B750">
+      <c r="B750" s="6">
         <f t="shared" si="22"/>
         <v>48</v>
       </c>
@@ -10298,7 +10305,7 @@
       </c>
     </row>
     <row r="751" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B751">
+      <c r="B751" s="6">
         <f t="shared" si="22"/>
         <v>48</v>
       </c>
@@ -10311,7 +10318,7 @@
       </c>
     </row>
     <row r="752" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B752">
+      <c r="B752" s="6">
         <f t="shared" si="22"/>
         <v>48</v>
       </c>
@@ -10324,7 +10331,7 @@
       </c>
     </row>
     <row r="753" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B753">
+      <c r="B753" s="6">
         <f t="shared" si="22"/>
         <v>49</v>
       </c>
@@ -10337,7 +10344,7 @@
       </c>
     </row>
     <row r="754" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B754">
+      <c r="B754" s="6">
         <f t="shared" si="22"/>
         <v>80</v>
       </c>
@@ -10350,7 +10357,7 @@
       </c>
     </row>
     <row r="755" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B755">
+      <c r="B755" s="6">
         <f t="shared" si="22"/>
         <v>117</v>
       </c>
@@ -10363,7 +10370,7 @@
       </c>
     </row>
     <row r="756" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B756">
+      <c r="B756" s="6">
         <f t="shared" si="22"/>
         <v>114</v>
       </c>
@@ -10376,7 +10383,7 @@
       </c>
     </row>
     <row r="757" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B757">
+      <c r="B757" s="6">
         <f t="shared" si="22"/>
         <v>103</v>
       </c>
@@ -10389,7 +10396,7 @@
       </c>
     </row>
     <row r="758" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B758">
+      <c r="B758" s="6">
         <f t="shared" si="22"/>
         <v>101</v>
       </c>
@@ -10402,7 +10409,7 @@
       </c>
     </row>
     <row r="759" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B759">
+      <c r="B759" s="6">
         <f t="shared" si="22"/>
         <v>95</v>
       </c>
@@ -10415,7 +10422,7 @@
       </c>
     </row>
     <row r="760" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B760">
+      <c r="B760" s="6">
         <f t="shared" si="22"/>
         <v>115</v>
       </c>
@@ -10428,7 +10435,7 @@
       </c>
     </row>
     <row r="761" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B761">
+      <c r="B761" s="6">
         <f t="shared" si="22"/>
         <v>116</v>
       </c>
@@ -10441,7 +10448,7 @@
       </c>
     </row>
     <row r="762" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B762">
+      <c r="B762" s="6">
         <f t="shared" si="22"/>
         <v>97</v>
       </c>
@@ -10454,7 +10461,7 @@
       </c>
     </row>
     <row r="763" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B763">
+      <c r="B763" s="6">
         <f t="shared" si="22"/>
         <v>116</v>
       </c>
@@ -10467,7 +10474,7 @@
       </c>
     </row>
     <row r="764" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B764">
+      <c r="B764" s="6">
         <f t="shared" si="22"/>
         <v>117</v>
       </c>
@@ -10480,7 +10487,7 @@
       </c>
     </row>
     <row r="765" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B765">
+      <c r="B765" s="6">
         <f t="shared" si="22"/>
         <v>115</v>
       </c>
@@ -10493,7 +10500,7 @@
       </c>
     </row>
     <row r="766" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B766">
+      <c r="B766" s="6">
         <f t="shared" si="22"/>
         <v>13</v>
       </c>
@@ -10506,7 +10513,7 @@
       </c>
     </row>
     <row r="767" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B767">
+      <c r="B767" s="6">
         <f t="shared" si="22"/>
         <v>10</v>
       </c>
@@ -10520,7 +10527,7 @@
       </c>
     </row>
     <row r="768" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B768">
+      <c r="B768" s="6">
         <f t="shared" si="22"/>
         <v>49</v>
       </c>
@@ -10533,7 +10540,7 @@
       </c>
     </row>
     <row r="769" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B769">
+      <c r="B769" s="6">
         <f t="shared" si="22"/>
         <v>57</v>
       </c>
@@ -10546,7 +10553,7 @@
       </c>
     </row>
     <row r="770" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B770">
+      <c r="B770" s="6">
         <f t="shared" si="22"/>
         <v>56</v>
       </c>
@@ -10559,7 +10566,7 @@
       </c>
     </row>
     <row r="771" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B771">
+      <c r="B771" s="6">
         <f t="shared" si="22"/>
         <v>51</v>
       </c>
@@ -10572,7 +10579,7 @@
       </c>
     </row>
     <row r="772" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B772">
+      <c r="B772" s="6">
         <f t="shared" ref="B772:B835" si="24">HEX2DEC(D772)</f>
         <v>48</v>
       </c>
@@ -10585,7 +10592,7 @@
       </c>
     </row>
     <row r="773" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B773">
+      <c r="B773" s="6">
         <f t="shared" si="24"/>
         <v>48</v>
       </c>
@@ -10598,7 +10605,7 @@
       </c>
     </row>
     <row r="774" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B774">
+      <c r="B774" s="6">
         <f t="shared" si="24"/>
         <v>48</v>
       </c>
@@ -10611,7 +10618,7 @@
       </c>
     </row>
     <row r="775" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B775">
+      <c r="B775" s="6">
         <f t="shared" si="24"/>
         <v>49</v>
       </c>
@@ -10624,7 +10631,7 @@
       </c>
     </row>
     <row r="776" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B776">
+      <c r="B776" s="6">
         <f t="shared" si="24"/>
         <v>82</v>
       </c>
@@ -10637,7 +10644,7 @@
       </c>
     </row>
     <row r="777" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B777">
+      <c r="B777" s="6">
         <f t="shared" si="24"/>
         <v>101</v>
       </c>
@@ -10650,7 +10657,7 @@
       </c>
     </row>
     <row r="778" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B778">
+      <c r="B778" s="6">
         <f t="shared" si="24"/>
         <v>115</v>
       </c>
@@ -10663,7 +10670,7 @@
       </c>
     </row>
     <row r="779" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B779">
+      <c r="B779" s="6">
         <f t="shared" si="24"/>
         <v>116</v>
       </c>
@@ -10676,7 +10683,7 @@
       </c>
     </row>
     <row r="780" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B780">
+      <c r="B780" s="6">
         <f t="shared" si="24"/>
         <v>97</v>
       </c>
@@ -10689,7 +10696,7 @@
       </c>
     </row>
     <row r="781" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B781">
+      <c r="B781" s="6">
         <f t="shared" si="24"/>
         <v>114</v>
       </c>
@@ -10702,7 +10709,7 @@
       </c>
     </row>
     <row r="782" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B782">
+      <c r="B782" s="6">
         <f t="shared" si="24"/>
         <v>116</v>
       </c>
@@ -10715,7 +10722,7 @@
       </c>
     </row>
     <row r="783" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B783">
+      <c r="B783" s="6">
         <f t="shared" si="24"/>
         <v>95</v>
       </c>
@@ -10728,7 +10735,7 @@
       </c>
     </row>
     <row r="784" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B784">
+      <c r="B784" s="6">
         <f t="shared" si="24"/>
         <v>115</v>
       </c>
@@ -10741,7 +10748,7 @@
       </c>
     </row>
     <row r="785" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B785">
+      <c r="B785" s="6">
         <f t="shared" si="24"/>
         <v>116</v>
       </c>
@@ -10754,7 +10761,7 @@
       </c>
     </row>
     <row r="786" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B786">
+      <c r="B786" s="6">
         <f t="shared" si="24"/>
         <v>97</v>
       </c>
@@ -10767,7 +10774,7 @@
       </c>
     </row>
     <row r="787" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B787">
+      <c r="B787" s="6">
         <f t="shared" si="24"/>
         <v>116</v>
       </c>
@@ -10780,7 +10787,7 @@
       </c>
     </row>
     <row r="788" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B788">
+      <c r="B788" s="6">
         <f t="shared" si="24"/>
         <v>117</v>
       </c>
@@ -10793,7 +10800,7 @@
       </c>
     </row>
     <row r="789" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B789">
+      <c r="B789" s="6">
         <f t="shared" si="24"/>
         <v>115</v>
       </c>
@@ -10806,7 +10813,7 @@
       </c>
     </row>
     <row r="790" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B790">
+      <c r="B790" s="6">
         <f t="shared" si="24"/>
         <v>13</v>
       </c>
@@ -10819,7 +10826,7 @@
       </c>
     </row>
     <row r="791" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B791">
+      <c r="B791" s="6">
         <f t="shared" si="24"/>
         <v>10</v>
       </c>
@@ -10833,7 +10840,7 @@
       </c>
     </row>
     <row r="792" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B792">
+      <c r="B792" s="6">
         <f t="shared" si="24"/>
         <v>49</v>
       </c>
@@ -10846,7 +10853,7 @@
       </c>
     </row>
     <row r="793" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B793">
+      <c r="B793" s="6">
         <f t="shared" si="24"/>
         <v>48</v>
       </c>
@@ -10859,7 +10866,7 @@
       </c>
     </row>
     <row r="794" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B794">
+      <c r="B794" s="6">
         <f t="shared" si="24"/>
         <v>53</v>
       </c>
@@ -10872,7 +10879,7 @@
       </c>
     </row>
     <row r="795" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B795">
+      <c r="B795" s="6">
         <f t="shared" si="24"/>
         <v>48</v>
       </c>
@@ -10885,7 +10892,7 @@
       </c>
     </row>
     <row r="796" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B796">
+      <c r="B796" s="6">
         <f t="shared" si="24"/>
         <v>48</v>
       </c>
@@ -10898,7 +10905,7 @@
       </c>
     </row>
     <row r="797" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B797">
+      <c r="B797" s="6">
         <f t="shared" si="24"/>
         <v>48</v>
       </c>
@@ -10911,7 +10918,7 @@
       </c>
     </row>
     <row r="798" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B798">
+      <c r="B798" s="6">
         <f t="shared" si="24"/>
         <v>48</v>
       </c>
@@ -10924,7 +10931,7 @@
       </c>
     </row>
     <row r="799" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B799">
+      <c r="B799" s="6">
         <f t="shared" si="24"/>
         <v>49</v>
       </c>
@@ -10937,7 +10944,7 @@
       </c>
     </row>
     <row r="800" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B800">
+      <c r="B800" s="6">
         <f t="shared" si="24"/>
         <v>83</v>
       </c>
@@ -10950,7 +10957,7 @@
       </c>
     </row>
     <row r="801" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B801">
+      <c r="B801" s="6">
         <f t="shared" si="24"/>
         <v>116</v>
       </c>
@@ -10963,7 +10970,7 @@
       </c>
     </row>
     <row r="802" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B802">
+      <c r="B802" s="6">
         <f t="shared" si="24"/>
         <v>97</v>
       </c>
@@ -10976,7 +10983,7 @@
       </c>
     </row>
     <row r="803" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B803">
+      <c r="B803" s="6">
         <f t="shared" si="24"/>
         <v>114</v>
       </c>
@@ -10989,7 +10996,7 @@
       </c>
     </row>
     <row r="804" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B804">
+      <c r="B804" s="6">
         <f t="shared" si="24"/>
         <v>116</v>
       </c>
@@ -11002,7 +11009,7 @@
       </c>
     </row>
     <row r="805" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B805">
+      <c r="B805" s="6">
         <f t="shared" si="24"/>
         <v>95</v>
       </c>
@@ -11015,7 +11022,7 @@
       </c>
     </row>
     <row r="806" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B806">
+      <c r="B806" s="6">
         <f t="shared" si="24"/>
         <v>100</v>
       </c>
@@ -11028,7 +11035,7 @@
       </c>
     </row>
     <row r="807" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B807">
+      <c r="B807" s="6">
         <f t="shared" si="24"/>
         <v>101</v>
       </c>
@@ -11041,7 +11048,7 @@
       </c>
     </row>
     <row r="808" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B808">
+      <c r="B808" s="6">
         <f t="shared" si="24"/>
         <v>97</v>
       </c>
@@ -11054,7 +11061,7 @@
       </c>
     </row>
     <row r="809" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B809">
+      <c r="B809" s="6">
         <f t="shared" si="24"/>
         <v>100</v>
       </c>
@@ -11067,7 +11074,7 @@
       </c>
     </row>
     <row r="810" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B810">
+      <c r="B810" s="6">
         <f t="shared" si="24"/>
         <v>13</v>
       </c>
@@ -11080,7 +11087,7 @@
       </c>
     </row>
     <row r="811" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B811">
+      <c r="B811" s="6">
         <f t="shared" si="24"/>
         <v>10</v>
       </c>
@@ -11094,7 +11101,7 @@
       </c>
     </row>
     <row r="812" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B812">
+      <c r="B812" s="6">
         <f t="shared" si="24"/>
         <v>49</v>
       </c>
@@ -11107,7 +11114,7 @@
       </c>
     </row>
     <row r="813" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B813">
+      <c r="B813" s="6">
         <f t="shared" si="24"/>
         <v>48</v>
       </c>
@@ -11120,7 +11127,7 @@
       </c>
     </row>
     <row r="814" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B814">
+      <c r="B814" s="6">
         <f t="shared" si="24"/>
         <v>54</v>
       </c>
@@ -11133,7 +11140,7 @@
       </c>
     </row>
     <row r="815" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B815">
+      <c r="B815" s="6">
         <f t="shared" si="24"/>
         <v>69</v>
       </c>
@@ -11146,7 +11153,7 @@
       </c>
     </row>
     <row r="816" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B816">
+      <c r="B816" s="6">
         <f t="shared" si="24"/>
         <v>48</v>
       </c>
@@ -11159,7 +11166,7 @@
       </c>
     </row>
     <row r="817" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B817">
+      <c r="B817" s="6">
         <f t="shared" si="24"/>
         <v>48</v>
       </c>
@@ -11172,7 +11179,7 @@
       </c>
     </row>
     <row r="818" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B818">
+      <c r="B818" s="6">
         <f t="shared" si="24"/>
         <v>48</v>
       </c>
@@ -11185,7 +11192,7 @@
       </c>
     </row>
     <row r="819" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B819">
+      <c r="B819" s="6">
         <f t="shared" si="24"/>
         <v>50</v>
       </c>
@@ -11198,7 +11205,7 @@
       </c>
     </row>
     <row r="820" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B820">
+      <c r="B820" s="6">
         <f t="shared" si="24"/>
         <v>83</v>
       </c>
@@ -11211,7 +11218,7 @@
       </c>
     </row>
     <row r="821" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B821">
+      <c r="B821" s="6">
         <f t="shared" si="24"/>
         <v>116</v>
       </c>
@@ -11224,7 +11231,7 @@
       </c>
     </row>
     <row r="822" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B822">
+      <c r="B822" s="6">
         <f t="shared" si="24"/>
         <v>97</v>
       </c>
@@ -11237,7 +11244,7 @@
       </c>
     </row>
     <row r="823" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B823">
+      <c r="B823" s="6">
         <f t="shared" si="24"/>
         <v>114</v>
       </c>
@@ -11250,7 +11257,7 @@
       </c>
     </row>
     <row r="824" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B824">
+      <c r="B824" s="6">
         <f t="shared" si="24"/>
         <v>116</v>
       </c>
@@ -11263,7 +11270,7 @@
       </c>
     </row>
     <row r="825" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B825">
+      <c r="B825" s="6">
         <f t="shared" si="24"/>
         <v>95</v>
       </c>
@@ -11276,7 +11283,7 @@
       </c>
     </row>
     <row r="826" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B826">
+      <c r="B826" s="6">
         <f t="shared" si="24"/>
         <v>99</v>
       </c>
@@ -11289,7 +11296,7 @@
       </c>
     </row>
     <row r="827" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B827">
+      <c r="B827" s="6">
         <f t="shared" si="24"/>
         <v>111</v>
       </c>
@@ -11302,7 +11309,7 @@
       </c>
     </row>
     <row r="828" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B828">
+      <c r="B828" s="6">
         <f t="shared" si="24"/>
         <v>117</v>
       </c>
@@ -11315,7 +11322,7 @@
       </c>
     </row>
     <row r="829" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B829">
+      <c r="B829" s="6">
         <f t="shared" si="24"/>
         <v>110</v>
       </c>
@@ -11328,7 +11335,7 @@
       </c>
     </row>
     <row r="830" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B830">
+      <c r="B830" s="6">
         <f t="shared" si="24"/>
         <v>116</v>
       </c>
@@ -11341,7 +11348,7 @@
       </c>
     </row>
     <row r="831" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B831">
+      <c r="B831" s="6">
         <f t="shared" si="24"/>
         <v>13</v>
       </c>
@@ -11354,7 +11361,7 @@
       </c>
     </row>
     <row r="832" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B832">
+      <c r="B832" s="6">
         <f t="shared" si="24"/>
         <v>10</v>
       </c>
@@ -11368,7 +11375,7 @@
       </c>
     </row>
     <row r="833" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B833">
+      <c r="B833" s="6">
         <f t="shared" si="24"/>
         <v>49</v>
       </c>
@@ -11381,7 +11388,7 @@
       </c>
     </row>
     <row r="834" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B834">
+      <c r="B834" s="6">
         <f t="shared" si="24"/>
         <v>48</v>
       </c>
@@ -11394,7 +11401,7 @@
       </c>
     </row>
     <row r="835" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B835">
+      <c r="B835" s="6">
         <f t="shared" si="24"/>
         <v>53</v>
       </c>
@@ -11407,7 +11414,7 @@
       </c>
     </row>
     <row r="836" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B836">
+      <c r="B836" s="6">
         <f t="shared" ref="B836:B899" si="26">HEX2DEC(D836)</f>
         <v>67</v>
       </c>
@@ -11420,7 +11427,7 @@
       </c>
     </row>
     <row r="837" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B837">
+      <c r="B837" s="6">
         <f t="shared" si="26"/>
         <v>48</v>
       </c>
@@ -11433,7 +11440,7 @@
       </c>
     </row>
     <row r="838" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B838">
+      <c r="B838" s="6">
         <f t="shared" si="26"/>
         <v>48</v>
       </c>
@@ -11446,7 +11453,7 @@
       </c>
     </row>
     <row r="839" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B839">
+      <c r="B839" s="6">
         <f t="shared" si="26"/>
         <v>48</v>
       </c>
@@ -11459,7 +11466,7 @@
       </c>
     </row>
     <row r="840" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B840">
+      <c r="B840" s="6">
         <f t="shared" si="26"/>
         <v>52</v>
       </c>
@@ -11472,7 +11479,7 @@
       </c>
     </row>
     <row r="841" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B841">
+      <c r="B841" s="6">
         <f t="shared" si="26"/>
         <v>83</v>
       </c>
@@ -11485,7 +11492,7 @@
       </c>
     </row>
     <row r="842" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B842">
+      <c r="B842" s="6">
         <f t="shared" si="26"/>
         <v>116</v>
       </c>
@@ -11498,7 +11505,7 @@
       </c>
     </row>
     <row r="843" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B843">
+      <c r="B843" s="6">
         <f t="shared" si="26"/>
         <v>97</v>
       </c>
@@ -11511,7 +11518,7 @@
       </c>
     </row>
     <row r="844" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B844">
+      <c r="B844" s="6">
         <f t="shared" si="26"/>
         <v>114</v>
       </c>
@@ -11524,7 +11531,7 @@
       </c>
     </row>
     <row r="845" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B845">
+      <c r="B845" s="6">
         <f t="shared" si="26"/>
         <v>116</v>
       </c>
@@ -11537,7 +11544,7 @@
       </c>
     </row>
     <row r="846" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B846">
+      <c r="B846" s="6">
         <f t="shared" si="26"/>
         <v>95</v>
       </c>
@@ -11550,7 +11557,7 @@
       </c>
     </row>
     <row r="847" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B847">
+      <c r="B847" s="6">
         <f t="shared" si="26"/>
         <v>116</v>
       </c>
@@ -11563,7 +11570,7 @@
       </c>
     </row>
     <row r="848" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B848">
+      <c r="B848" s="6">
         <f t="shared" si="26"/>
         <v>105</v>
       </c>
@@ -11576,7 +11583,7 @@
       </c>
     </row>
     <row r="849" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B849">
+      <c r="B849" s="6">
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
@@ -11589,7 +11596,7 @@
       </c>
     </row>
     <row r="850" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B850">
+      <c r="B850" s="6">
         <f t="shared" si="26"/>
         <v>13</v>
       </c>
@@ -11602,7 +11609,7 @@
       </c>
     </row>
     <row r="851" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B851">
+      <c r="B851" s="6">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
@@ -11616,7 +11623,7 @@
       </c>
     </row>
     <row r="852" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B852">
+      <c r="B852" s="6">
         <f t="shared" si="26"/>
         <v>49</v>
       </c>
@@ -11629,7 +11636,7 @@
       </c>
     </row>
     <row r="853" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B853">
+      <c r="B853" s="6">
         <f t="shared" si="26"/>
         <v>57</v>
       </c>
@@ -11642,7 +11649,7 @@
       </c>
     </row>
     <row r="854" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B854">
+      <c r="B854" s="6">
         <f t="shared" si="26"/>
         <v>55</v>
       </c>
@@ -11655,7 +11662,7 @@
       </c>
     </row>
     <row r="855" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B855">
+      <c r="B855" s="6">
         <f t="shared" si="26"/>
         <v>48</v>
       </c>
@@ -11668,7 +11675,7 @@
       </c>
     </row>
     <row r="856" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B856">
+      <c r="B856" s="6">
         <f t="shared" si="26"/>
         <v>48</v>
       </c>
@@ -11681,7 +11688,7 @@
       </c>
     </row>
     <row r="857" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B857">
+      <c r="B857" s="6">
         <f t="shared" si="26"/>
         <v>48</v>
       </c>
@@ -11694,7 +11701,7 @@
       </c>
     </row>
     <row r="858" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B858">
+      <c r="B858" s="6">
         <f t="shared" si="26"/>
         <v>48</v>
       </c>
@@ -11707,7 +11714,7 @@
       </c>
     </row>
     <row r="859" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B859">
+      <c r="B859" s="6">
         <f t="shared" si="26"/>
         <v>49</v>
       </c>
@@ -11720,7 +11727,7 @@
       </c>
     </row>
     <row r="860" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B860">
+      <c r="B860" s="6">
         <f t="shared" si="26"/>
         <v>65</v>
       </c>
@@ -11733,7 +11740,7 @@
       </c>
     </row>
     <row r="861" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B861">
+      <c r="B861" s="6">
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
@@ -11746,7 +11753,7 @@
       </c>
     </row>
     <row r="862" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B862">
+      <c r="B862" s="6">
         <f t="shared" si="26"/>
         <v>95</v>
       </c>
@@ -11759,7 +11766,7 @@
       </c>
     </row>
     <row r="863" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B863">
+      <c r="B863" s="6">
         <f t="shared" si="26"/>
         <v>48</v>
       </c>
@@ -11772,7 +11779,7 @@
       </c>
     </row>
     <row r="864" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B864">
+      <c r="B864" s="6">
         <f t="shared" si="26"/>
         <v>13</v>
       </c>
@@ -11785,7 +11792,7 @@
       </c>
     </row>
     <row r="865" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B865">
+      <c r="B865" s="6">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
@@ -11799,7 +11806,7 @@
       </c>
     </row>
     <row r="866" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B866">
+      <c r="B866" s="6">
         <f t="shared" si="26"/>
         <v>49</v>
       </c>
@@ -11812,7 +11819,7 @@
       </c>
     </row>
     <row r="867" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B867">
+      <c r="B867" s="6">
         <f t="shared" si="26"/>
         <v>57</v>
       </c>
@@ -11825,7 +11832,7 @@
       </c>
     </row>
     <row r="868" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B868">
+      <c r="B868" s="6">
         <f t="shared" si="26"/>
         <v>55</v>
       </c>
@@ -11838,7 +11845,7 @@
       </c>
     </row>
     <row r="869" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B869">
+      <c r="B869" s="6">
         <f t="shared" si="26"/>
         <v>49</v>
       </c>
@@ -11851,7 +11858,7 @@
       </c>
     </row>
     <row r="870" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B870">
+      <c r="B870" s="6">
         <f t="shared" si="26"/>
         <v>48</v>
       </c>
@@ -11864,7 +11871,7 @@
       </c>
     </row>
     <row r="871" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B871">
+      <c r="B871" s="6">
         <f t="shared" si="26"/>
         <v>48</v>
       </c>
@@ -11877,7 +11884,7 @@
       </c>
     </row>
     <row r="872" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B872">
+      <c r="B872" s="6">
         <f t="shared" si="26"/>
         <v>48</v>
       </c>
@@ -11890,7 +11897,7 @@
       </c>
     </row>
     <row r="873" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B873">
+      <c r="B873" s="6">
         <f t="shared" si="26"/>
         <v>49</v>
       </c>
@@ -11903,7 +11910,7 @@
       </c>
     </row>
     <row r="874" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B874">
+      <c r="B874" s="6">
         <f t="shared" si="26"/>
         <v>65</v>
       </c>
@@ -11916,7 +11923,7 @@
       </c>
     </row>
     <row r="875" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B875">
+      <c r="B875" s="6">
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
@@ -11929,7 +11936,7 @@
       </c>
     </row>
     <row r="876" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B876">
+      <c r="B876" s="6">
         <f t="shared" si="26"/>
         <v>95</v>
       </c>
@@ -11942,7 +11949,7 @@
       </c>
     </row>
     <row r="877" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B877">
+      <c r="B877" s="6">
         <f t="shared" si="26"/>
         <v>49</v>
       </c>
@@ -11955,7 +11962,7 @@
       </c>
     </row>
     <row r="878" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B878">
+      <c r="B878" s="6">
         <f t="shared" si="26"/>
         <v>13</v>
       </c>
@@ -11968,7 +11975,7 @@
       </c>
     </row>
     <row r="879" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B879">
+      <c r="B879" s="6">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
@@ -11982,7 +11989,7 @@
       </c>
     </row>
     <row r="880" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B880">
+      <c r="B880" s="6">
         <f t="shared" si="26"/>
         <v>49</v>
       </c>
@@ -11995,7 +12002,7 @@
       </c>
     </row>
     <row r="881" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B881">
+      <c r="B881" s="6">
         <f t="shared" si="26"/>
         <v>57</v>
       </c>
@@ -12008,7 +12015,7 @@
       </c>
     </row>
     <row r="882" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B882">
+      <c r="B882" s="6">
         <f t="shared" si="26"/>
         <v>55</v>
       </c>
@@ -12021,7 +12028,7 @@
       </c>
     </row>
     <row r="883" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B883">
+      <c r="B883" s="6">
         <f t="shared" si="26"/>
         <v>50</v>
       </c>
@@ -12034,7 +12041,7 @@
       </c>
     </row>
     <row r="884" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B884">
+      <c r="B884" s="6">
         <f t="shared" si="26"/>
         <v>48</v>
       </c>
@@ -12047,7 +12054,7 @@
       </c>
     </row>
     <row r="885" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B885">
+      <c r="B885" s="6">
         <f t="shared" si="26"/>
         <v>48</v>
       </c>
@@ -12060,7 +12067,7 @@
       </c>
     </row>
     <row r="886" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B886">
+      <c r="B886" s="6">
         <f t="shared" si="26"/>
         <v>48</v>
       </c>
@@ -12073,7 +12080,7 @@
       </c>
     </row>
     <row r="887" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B887">
+      <c r="B887" s="6">
         <f t="shared" si="26"/>
         <v>49</v>
       </c>
@@ -12086,7 +12093,7 @@
       </c>
     </row>
     <row r="888" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B888">
+      <c r="B888" s="6">
         <f t="shared" si="26"/>
         <v>65</v>
       </c>
@@ -12099,7 +12106,7 @@
       </c>
     </row>
     <row r="889" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B889">
+      <c r="B889" s="6">
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
@@ -12112,7 +12119,7 @@
       </c>
     </row>
     <row r="890" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B890">
+      <c r="B890" s="6">
         <f t="shared" si="26"/>
         <v>95</v>
       </c>
@@ -12125,7 +12132,7 @@
       </c>
     </row>
     <row r="891" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B891">
+      <c r="B891" s="6">
         <f t="shared" si="26"/>
         <v>50</v>
       </c>
@@ -12138,7 +12145,7 @@
       </c>
     </row>
     <row r="892" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B892">
+      <c r="B892" s="6">
         <f t="shared" si="26"/>
         <v>13</v>
       </c>
@@ -12151,7 +12158,7 @@
       </c>
     </row>
     <row r="893" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B893">
+      <c r="B893" s="6">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
@@ -12165,7 +12172,7 @@
       </c>
     </row>
     <row r="894" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B894">
+      <c r="B894" s="6">
         <f t="shared" si="26"/>
         <v>49</v>
       </c>
@@ -12178,7 +12185,7 @@
       </c>
     </row>
     <row r="895" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B895">
+      <c r="B895" s="6">
         <f t="shared" si="26"/>
         <v>57</v>
       </c>
@@ -12191,7 +12198,7 @@
       </c>
     </row>
     <row r="896" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B896">
+      <c r="B896" s="6">
         <f t="shared" si="26"/>
         <v>55</v>
       </c>
@@ -12204,7 +12211,7 @@
       </c>
     </row>
     <row r="897" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B897">
+      <c r="B897" s="6">
         <f t="shared" si="26"/>
         <v>51</v>
       </c>
@@ -12217,7 +12224,7 @@
       </c>
     </row>
     <row r="898" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B898">
+      <c r="B898" s="6">
         <f t="shared" si="26"/>
         <v>48</v>
       </c>
@@ -12230,7 +12237,7 @@
       </c>
     </row>
     <row r="899" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B899">
+      <c r="B899" s="6">
         <f t="shared" si="26"/>
         <v>48</v>
       </c>
@@ -12243,7 +12250,7 @@
       </c>
     </row>
     <row r="900" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B900">
+      <c r="B900" s="6">
         <f t="shared" ref="B900:B963" si="28">HEX2DEC(D900)</f>
         <v>48</v>
       </c>
@@ -12256,7 +12263,7 @@
       </c>
     </row>
     <row r="901" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B901">
+      <c r="B901" s="6">
         <f t="shared" si="28"/>
         <v>49</v>
       </c>
@@ -12269,7 +12276,7 @@
       </c>
     </row>
     <row r="902" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B902">
+      <c r="B902" s="6">
         <f t="shared" si="28"/>
         <v>65</v>
       </c>
@@ -12282,7 +12289,7 @@
       </c>
     </row>
     <row r="903" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B903">
+      <c r="B903" s="6">
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
@@ -12295,7 +12302,7 @@
       </c>
     </row>
     <row r="904" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B904">
+      <c r="B904" s="6">
         <f t="shared" si="28"/>
         <v>95</v>
       </c>
@@ -12308,7 +12315,7 @@
       </c>
     </row>
     <row r="905" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B905">
+      <c r="B905" s="6">
         <f t="shared" si="28"/>
         <v>51</v>
       </c>
@@ -12321,7 +12328,7 @@
       </c>
     </row>
     <row r="906" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B906">
+      <c r="B906" s="6">
         <f t="shared" si="28"/>
         <v>13</v>
       </c>
@@ -12334,7 +12341,7 @@
       </c>
     </row>
     <row r="907" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B907">
+      <c r="B907" s="6">
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
@@ -12348,7 +12355,7 @@
       </c>
     </row>
     <row r="908" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B908">
+      <c r="B908" s="6">
         <f t="shared" si="28"/>
         <v>49</v>
       </c>
@@ -12361,7 +12368,7 @@
       </c>
     </row>
     <row r="909" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B909">
+      <c r="B909" s="6">
         <f t="shared" si="28"/>
         <v>57</v>
       </c>
@@ -12374,7 +12381,7 @@
       </c>
     </row>
     <row r="910" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B910">
+      <c r="B910" s="6">
         <f t="shared" si="28"/>
         <v>55</v>
       </c>
@@ -12387,7 +12394,7 @@
       </c>
     </row>
     <row r="911" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B911">
+      <c r="B911" s="6">
         <f t="shared" si="28"/>
         <v>52</v>
       </c>
@@ -12400,7 +12407,7 @@
       </c>
     </row>
     <row r="912" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B912">
+      <c r="B912" s="6">
         <f t="shared" si="28"/>
         <v>48</v>
       </c>
@@ -12413,7 +12420,7 @@
       </c>
     </row>
     <row r="913" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B913">
+      <c r="B913" s="6">
         <f t="shared" si="28"/>
         <v>48</v>
       </c>
@@ -12426,7 +12433,7 @@
       </c>
     </row>
     <row r="914" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B914">
+      <c r="B914" s="6">
         <f t="shared" si="28"/>
         <v>48</v>
       </c>
@@ -12439,7 +12446,7 @@
       </c>
     </row>
     <row r="915" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B915">
+      <c r="B915" s="6">
         <f t="shared" si="28"/>
         <v>49</v>
       </c>
@@ -12452,7 +12459,7 @@
       </c>
     </row>
     <row r="916" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B916">
+      <c r="B916" s="6">
         <f t="shared" si="28"/>
         <v>65</v>
       </c>
@@ -12465,7 +12472,7 @@
       </c>
     </row>
     <row r="917" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B917">
+      <c r="B917" s="6">
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
@@ -12478,7 +12485,7 @@
       </c>
     </row>
     <row r="918" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B918">
+      <c r="B918" s="6">
         <f t="shared" si="28"/>
         <v>95</v>
       </c>
@@ -12491,7 +12498,7 @@
       </c>
     </row>
     <row r="919" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B919">
+      <c r="B919" s="6">
         <f t="shared" si="28"/>
         <v>52</v>
       </c>
@@ -12504,7 +12511,7 @@
       </c>
     </row>
     <row r="920" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B920">
+      <c r="B920" s="6">
         <f t="shared" si="28"/>
         <v>13</v>
       </c>
@@ -12517,7 +12524,7 @@
       </c>
     </row>
     <row r="921" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B921">
+      <c r="B921" s="6">
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
@@ -12531,7 +12538,7 @@
       </c>
     </row>
     <row r="922" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B922">
+      <c r="B922" s="6">
         <f t="shared" si="28"/>
         <v>49</v>
       </c>
@@ -12544,7 +12551,7 @@
       </c>
     </row>
     <row r="923" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B923">
+      <c r="B923" s="6">
         <f t="shared" si="28"/>
         <v>57</v>
       </c>
@@ -12557,7 +12564,7 @@
       </c>
     </row>
     <row r="924" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B924">
+      <c r="B924" s="6">
         <f t="shared" si="28"/>
         <v>55</v>
       </c>
@@ -12570,7 +12577,7 @@
       </c>
     </row>
     <row r="925" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B925">
+      <c r="B925" s="6">
         <f t="shared" si="28"/>
         <v>53</v>
       </c>
@@ -12583,7 +12590,7 @@
       </c>
     </row>
     <row r="926" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B926">
+      <c r="B926" s="6">
         <f t="shared" si="28"/>
         <v>48</v>
       </c>
@@ -12596,7 +12603,7 @@
       </c>
     </row>
     <row r="927" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B927">
+      <c r="B927" s="6">
         <f t="shared" si="28"/>
         <v>48</v>
       </c>
@@ -12609,7 +12616,7 @@
       </c>
     </row>
     <row r="928" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B928">
+      <c r="B928" s="6">
         <f t="shared" si="28"/>
         <v>48</v>
       </c>
@@ -12622,7 +12629,7 @@
       </c>
     </row>
     <row r="929" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B929">
+      <c r="B929" s="6">
         <f t="shared" si="28"/>
         <v>49</v>
       </c>
@@ -12635,7 +12642,7 @@
       </c>
     </row>
     <row r="930" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B930">
+      <c r="B930" s="6">
         <f t="shared" si="28"/>
         <v>65</v>
       </c>
@@ -12648,7 +12655,7 @@
       </c>
     </row>
     <row r="931" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B931">
+      <c r="B931" s="6">
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
@@ -12661,7 +12668,7 @@
       </c>
     </row>
     <row r="932" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B932">
+      <c r="B932" s="6">
         <f t="shared" si="28"/>
         <v>95</v>
       </c>
@@ -12674,7 +12681,7 @@
       </c>
     </row>
     <row r="933" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B933">
+      <c r="B933" s="6">
         <f t="shared" si="28"/>
         <v>53</v>
       </c>
@@ -12687,7 +12694,7 @@
       </c>
     </row>
     <row r="934" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B934">
+      <c r="B934" s="6">
         <f t="shared" si="28"/>
         <v>13</v>
       </c>
@@ -12700,7 +12707,7 @@
       </c>
     </row>
     <row r="935" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B935">
+      <c r="B935" s="6">
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
@@ -12714,7 +12721,7 @@
       </c>
     </row>
     <row r="936" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B936">
+      <c r="B936" s="6">
         <f t="shared" si="28"/>
         <v>49</v>
       </c>
@@ -12727,7 +12734,7 @@
       </c>
     </row>
     <row r="937" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B937">
+      <c r="B937" s="6">
         <f t="shared" si="28"/>
         <v>57</v>
       </c>
@@ -12740,7 +12747,7 @@
       </c>
     </row>
     <row r="938" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B938">
+      <c r="B938" s="6">
         <f t="shared" si="28"/>
         <v>55</v>
       </c>
@@ -12753,7 +12760,7 @@
       </c>
     </row>
     <row r="939" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B939">
+      <c r="B939" s="6">
         <f t="shared" si="28"/>
         <v>54</v>
       </c>
@@ -12766,7 +12773,7 @@
       </c>
     </row>
     <row r="940" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B940">
+      <c r="B940" s="6">
         <f t="shared" si="28"/>
         <v>48</v>
       </c>
@@ -12779,7 +12786,7 @@
       </c>
     </row>
     <row r="941" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B941">
+      <c r="B941" s="6">
         <f t="shared" si="28"/>
         <v>48</v>
       </c>
@@ -12792,7 +12799,7 @@
       </c>
     </row>
     <row r="942" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B942">
+      <c r="B942" s="6">
         <f t="shared" si="28"/>
         <v>48</v>
       </c>
@@ -12805,7 +12812,7 @@
       </c>
     </row>
     <row r="943" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B943">
+      <c r="B943" s="6">
         <f t="shared" si="28"/>
         <v>49</v>
       </c>
@@ -12818,7 +12825,7 @@
       </c>
     </row>
     <row r="944" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B944">
+      <c r="B944" s="6">
         <f t="shared" si="28"/>
         <v>65</v>
       </c>
@@ -12831,7 +12838,7 @@
       </c>
     </row>
     <row r="945" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B945">
+      <c r="B945" s="6">
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
@@ -12844,7 +12851,7 @@
       </c>
     </row>
     <row r="946" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B946">
+      <c r="B946" s="6">
         <f t="shared" si="28"/>
         <v>95</v>
       </c>
@@ -12857,7 +12864,7 @@
       </c>
     </row>
     <row r="947" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B947">
+      <c r="B947" s="6">
         <f t="shared" si="28"/>
         <v>54</v>
       </c>
@@ -12870,7 +12877,7 @@
       </c>
     </row>
     <row r="948" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B948">
+      <c r="B948" s="6">
         <f t="shared" si="28"/>
         <v>13</v>
       </c>
@@ -12883,7 +12890,7 @@
       </c>
     </row>
     <row r="949" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B949">
+      <c r="B949" s="6">
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
@@ -12897,7 +12904,7 @@
       </c>
     </row>
     <row r="950" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B950">
+      <c r="B950" s="6">
         <f t="shared" si="28"/>
         <v>49</v>
       </c>
@@ -12910,7 +12917,7 @@
       </c>
     </row>
     <row r="951" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B951">
+      <c r="B951" s="6">
         <f t="shared" si="28"/>
         <v>57</v>
       </c>
@@ -12923,7 +12930,7 @@
       </c>
     </row>
     <row r="952" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B952">
+      <c r="B952" s="6">
         <f t="shared" si="28"/>
         <v>55</v>
       </c>
@@ -12936,7 +12943,7 @@
       </c>
     </row>
     <row r="953" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B953">
+      <c r="B953" s="6">
         <f t="shared" si="28"/>
         <v>55</v>
       </c>
@@ -12949,7 +12956,7 @@
       </c>
     </row>
     <row r="954" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B954">
+      <c r="B954" s="6">
         <f t="shared" si="28"/>
         <v>48</v>
       </c>
@@ -12962,7 +12969,7 @@
       </c>
     </row>
     <row r="955" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B955">
+      <c r="B955" s="6">
         <f t="shared" si="28"/>
         <v>48</v>
       </c>
@@ -12975,7 +12982,7 @@
       </c>
     </row>
     <row r="956" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B956">
+      <c r="B956" s="6">
         <f t="shared" si="28"/>
         <v>48</v>
       </c>
@@ -12988,7 +12995,7 @@
       </c>
     </row>
     <row r="957" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B957">
+      <c r="B957" s="6">
         <f t="shared" si="28"/>
         <v>49</v>
       </c>
@@ -13001,7 +13008,7 @@
       </c>
     </row>
     <row r="958" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B958">
+      <c r="B958" s="6">
         <f t="shared" si="28"/>
         <v>65</v>
       </c>
@@ -13014,7 +13021,7 @@
       </c>
     </row>
     <row r="959" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B959">
+      <c r="B959" s="6">
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
@@ -13027,7 +13034,7 @@
       </c>
     </row>
     <row r="960" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B960">
+      <c r="B960" s="6">
         <f t="shared" si="28"/>
         <v>95</v>
       </c>
@@ -13040,7 +13047,7 @@
       </c>
     </row>
     <row r="961" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B961">
+      <c r="B961" s="6">
         <f t="shared" si="28"/>
         <v>55</v>
       </c>
@@ -13053,7 +13060,7 @@
       </c>
     </row>
     <row r="962" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B962">
+      <c r="B962" s="6">
         <f t="shared" si="28"/>
         <v>13</v>
       </c>
@@ -13066,7 +13073,7 @@
       </c>
     </row>
     <row r="963" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B963">
+      <c r="B963" s="6">
         <f t="shared" si="28"/>
         <v>10</v>
       </c>
@@ -13080,7 +13087,7 @@
       </c>
     </row>
     <row r="964" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B964">
+      <c r="B964" s="6">
         <f t="shared" ref="B964:B1003" si="30">HEX2DEC(D964)</f>
         <v>49</v>
       </c>
@@ -13093,7 +13100,7 @@
       </c>
     </row>
     <row r="965" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B965">
+      <c r="B965" s="6">
         <f t="shared" si="30"/>
         <v>57</v>
       </c>
@@ -13106,7 +13113,7 @@
       </c>
     </row>
     <row r="966" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B966">
+      <c r="B966" s="6">
         <f t="shared" si="30"/>
         <v>65</v>
       </c>
@@ -13119,7 +13126,7 @@
       </c>
     </row>
     <row r="967" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B967">
+      <c r="B967" s="6">
         <f t="shared" si="30"/>
         <v>54</v>
       </c>
@@ -13132,7 +13139,7 @@
       </c>
     </row>
     <row r="968" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B968">
+      <c r="B968" s="6">
         <f t="shared" si="30"/>
         <v>48</v>
       </c>
@@ -13145,7 +13152,7 @@
       </c>
     </row>
     <row r="969" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B969">
+      <c r="B969" s="6">
         <f t="shared" si="30"/>
         <v>48</v>
       </c>
@@ -13158,7 +13165,7 @@
       </c>
     </row>
     <row r="970" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B970">
+      <c r="B970" s="6">
         <f t="shared" si="30"/>
         <v>48</v>
       </c>
@@ -13171,7 +13178,7 @@
       </c>
     </row>
     <row r="971" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B971">
+      <c r="B971" s="6">
         <f t="shared" si="30"/>
         <v>52</v>
       </c>
@@ -13184,7 +13191,7 @@
       </c>
     </row>
     <row r="972" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B972">
+      <c r="B972" s="6">
         <f t="shared" si="30"/>
         <v>68</v>
       </c>
@@ -13197,7 +13204,7 @@
       </c>
     </row>
     <row r="973" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B973">
+      <c r="B973" s="6">
         <f t="shared" si="30"/>
         <v>97</v>
       </c>
@@ -13210,7 +13217,7 @@
       </c>
     </row>
     <row r="974" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B974">
+      <c r="B974" s="6">
         <f t="shared" si="30"/>
         <v>95</v>
       </c>
@@ -13223,7 +13230,7 @@
       </c>
     </row>
     <row r="975" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B975">
+      <c r="B975" s="6">
         <f t="shared" si="30"/>
         <v>48</v>
       </c>
@@ -13236,7 +13243,7 @@
       </c>
     </row>
     <row r="976" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B976">
+      <c r="B976" s="6">
         <f t="shared" si="30"/>
         <v>13</v>
       </c>
@@ -13249,7 +13256,7 @@
       </c>
     </row>
     <row r="977" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B977">
+      <c r="B977" s="6">
         <f t="shared" si="30"/>
         <v>10</v>
       </c>
@@ -13263,7 +13270,7 @@
       </c>
     </row>
     <row r="978" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B978">
+      <c r="B978" s="6">
         <f t="shared" si="30"/>
         <v>49</v>
       </c>
@@ -13276,7 +13283,7 @@
       </c>
     </row>
     <row r="979" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B979">
+      <c r="B979" s="6">
         <f t="shared" si="30"/>
         <v>57</v>
       </c>
@@ -13289,7 +13296,7 @@
       </c>
     </row>
     <row r="980" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B980">
+      <c r="B980" s="6">
         <f t="shared" si="30"/>
         <v>65</v>
       </c>
@@ -13302,7 +13309,7 @@
       </c>
     </row>
     <row r="981" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B981">
+      <c r="B981" s="6">
         <f t="shared" si="30"/>
         <v>65</v>
       </c>
@@ -13315,7 +13322,7 @@
       </c>
     </row>
     <row r="982" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B982">
+      <c r="B982" s="6">
         <f t="shared" si="30"/>
         <v>48</v>
       </c>
@@ -13328,7 +13335,7 @@
       </c>
     </row>
     <row r="983" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B983">
+      <c r="B983" s="6">
         <f t="shared" si="30"/>
         <v>48</v>
       </c>
@@ -13341,7 +13348,7 @@
       </c>
     </row>
     <row r="984" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B984">
+      <c r="B984" s="6">
         <f t="shared" si="30"/>
         <v>48</v>
       </c>
@@ -13354,7 +13361,7 @@
       </c>
     </row>
     <row r="985" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B985">
+      <c r="B985" s="6">
         <f t="shared" si="30"/>
         <v>52</v>
       </c>
@@ -13367,7 +13374,7 @@
       </c>
     </row>
     <row r="986" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B986">
+      <c r="B986" s="6">
         <f t="shared" si="30"/>
         <v>68</v>
       </c>
@@ -13380,7 +13387,7 @@
       </c>
     </row>
     <row r="987" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B987">
+      <c r="B987" s="6">
         <f t="shared" si="30"/>
         <v>97</v>
       </c>
@@ -13393,7 +13400,7 @@
       </c>
     </row>
     <row r="988" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B988">
+      <c r="B988" s="6">
         <f t="shared" si="30"/>
         <v>95</v>
       </c>
@@ -13406,7 +13413,7 @@
       </c>
     </row>
     <row r="989" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B989">
+      <c r="B989" s="6">
         <f t="shared" si="30"/>
         <v>49</v>
       </c>
@@ -13419,7 +13426,7 @@
       </c>
     </row>
     <row r="990" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B990">
+      <c r="B990" s="6">
         <f t="shared" si="30"/>
         <v>13</v>
       </c>
@@ -13432,7 +13439,7 @@
       </c>
     </row>
     <row r="991" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B991">
+      <c r="B991" s="6">
         <f t="shared" si="30"/>
         <v>10</v>
       </c>
@@ -13446,7 +13453,7 @@
       </c>
     </row>
     <row r="992" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B992">
+      <c r="B992" s="6">
         <f t="shared" si="30"/>
         <v>49</v>
       </c>
@@ -13459,7 +13466,7 @@
       </c>
     </row>
     <row r="993" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B993">
+      <c r="B993" s="6">
         <f t="shared" si="30"/>
         <v>57</v>
       </c>
@@ -13472,7 +13479,7 @@
       </c>
     </row>
     <row r="994" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B994">
+      <c r="B994" s="6">
         <f t="shared" si="30"/>
         <v>65</v>
       </c>
@@ -13485,7 +13492,7 @@
       </c>
     </row>
     <row r="995" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B995">
+      <c r="B995" s="6">
         <f t="shared" si="30"/>
         <v>69</v>
       </c>
@@ -13498,7 +13505,7 @@
       </c>
     </row>
     <row r="996" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B996">
+      <c r="B996" s="6">
         <f t="shared" si="30"/>
         <v>48</v>
       </c>
@@ -13511,7 +13518,7 @@
       </c>
     </row>
     <row r="997" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B997">
+      <c r="B997" s="6">
         <f t="shared" si="30"/>
         <v>48</v>
       </c>
@@ -13524,7 +13531,7 @@
       </c>
     </row>
     <row r="998" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B998">
+      <c r="B998" s="6">
         <f t="shared" si="30"/>
         <v>48</v>
       </c>
@@ -13537,7 +13544,7 @@
       </c>
     </row>
     <row r="999" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B999">
+      <c r="B999" s="6">
         <f t="shared" si="30"/>
         <v>52</v>
       </c>
@@ -13550,7 +13557,7 @@
       </c>
     </row>
     <row r="1000" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1000">
+      <c r="B1000" s="6">
         <f t="shared" si="30"/>
         <v>68</v>
       </c>
@@ -13563,7 +13570,7 @@
       </c>
     </row>
     <row r="1001" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1001">
+      <c r="B1001" s="6">
         <f t="shared" si="30"/>
         <v>97</v>
       </c>
@@ -13576,7 +13583,7 @@
       </c>
     </row>
     <row r="1002" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1002">
+      <c r="B1002" s="6">
         <f t="shared" si="30"/>
         <v>95</v>
       </c>
@@ -13589,7 +13596,7 @@
       </c>
     </row>
     <row r="1003" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1003">
+      <c r="B1003" s="6">
         <f t="shared" si="30"/>
         <v>50</v>
       </c>
